--- a/orders.xlsx
+++ b/orders.xlsx
@@ -445,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -465,13 +465,13 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -480,9 +480,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -6521,8 +6518,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="26.13"/>
-    <col customWidth="1" min="7" max="8" width="25.5"/>
+    <col customWidth="1" min="5" max="5" width="30.5"/>
+    <col customWidth="1" min="6" max="6" width="26.13"/>
+    <col customWidth="1" min="7" max="7" width="28.75"/>
+    <col customWidth="1" min="8" max="8" width="25.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6544,7 +6543,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -6568,13 +6567,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -6597,13 +6596,13 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -6626,13 +6625,13 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>12</v>
@@ -6654,14 +6653,14 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
@@ -6684,13 +6683,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>12</v>
@@ -6712,14 +6711,14 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -6742,13 +6741,13 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>30</v>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
@@ -6771,13 +6770,13 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
@@ -6800,13 +6799,13 @@
         <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
@@ -6829,13 +6828,13 @@
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -6858,13 +6857,13 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>42</v>
+      <c r="G12" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -6886,14 +6885,14 @@
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>45</v>
+      <c r="G13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
@@ -6916,13 +6915,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
+      <c r="G14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -6944,14 +6943,14 @@
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>12</v>
@@ -6973,14 +6972,14 @@
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>104</v>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>54</v>
+      <c r="G16" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -7002,14 +7001,14 @@
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>124</v>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>126</v>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>12</v>
@@ -7032,13 +7031,13 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>12</v>
@@ -7061,13 +7060,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>12</v>
@@ -7090,13 +7089,13 @@
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -7119,13 +7118,13 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -7148,13 +7147,13 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>12</v>
@@ -7177,13 +7176,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>12</v>
@@ -7206,13 +7205,13 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>12</v>
@@ -7235,13 +7234,13 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>12</v>
@@ -7264,13 +7263,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>12</v>
@@ -7293,13 +7292,13 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>12</v>
@@ -7322,13 +7321,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>12</v>
@@ -7351,13 +7350,13 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>21</v>
+      <c r="G29" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>12</v>
@@ -7379,14 +7378,14 @@
       <c r="D30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>114</v>
+      <c r="E30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>12</v>
@@ -7409,13 +7408,13 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>27</v>
+      <c r="G31" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>12</v>
@@ -7438,13 +7437,13 @@
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>12</v>
@@ -7467,13 +7466,13 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
@@ -7495,14 +7494,14 @@
       <c r="D34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>126</v>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>12</v>
@@ -7525,13 +7524,13 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>12</v>
@@ -7554,13 +7553,13 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>12</v>
@@ -7583,13 +7582,13 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>12</v>
@@ -7612,13 +7611,13 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>12</v>
@@ -7641,13 +7640,13 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>12</v>
@@ -7670,13 +7669,13 @@
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>12</v>
@@ -7699,13 +7698,13 @@
         <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>122</v>
+      <c r="G41" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>12</v>
@@ -7715,7 +7714,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="G42" s="3"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43">
@@ -7755,7 +7754,6 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52">
-      <c r="E52" s="4"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
@@ -7778,2709 +7776,3613 @@
     </row>
     <row r="57">
       <c r="D57" s="5"/>
+      <c r="G57" s="2"/>
     </row>
     <row r="58">
       <c r="D58" s="5"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59">
       <c r="D59" s="5"/>
+      <c r="G59" s="2"/>
     </row>
     <row r="60">
       <c r="D60" s="5"/>
+      <c r="G60" s="2"/>
     </row>
     <row r="61">
       <c r="D61" s="5"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62">
       <c r="D62" s="5"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63">
       <c r="D63" s="5"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64">
       <c r="D64" s="5"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65">
       <c r="D65" s="5"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66">
       <c r="D66" s="5"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67">
       <c r="D67" s="5"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68">
       <c r="D68" s="5"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69">
       <c r="D69" s="5"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70">
       <c r="D70" s="5"/>
+      <c r="G70" s="3"/>
     </row>
     <row r="71">
       <c r="D71" s="5"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72">
       <c r="D72" s="5"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73">
       <c r="D73" s="5"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74">
       <c r="D74" s="5"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75">
       <c r="D75" s="5"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76">
       <c r="D76" s="5"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77">
       <c r="D77" s="5"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78">
       <c r="D78" s="5"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79">
       <c r="D79" s="5"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80">
       <c r="D80" s="5"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81">
       <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82">
       <c r="D82" s="5"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83">
       <c r="D83" s="5"/>
+      <c r="G83" s="2"/>
     </row>
     <row r="84">
       <c r="D84" s="5"/>
+      <c r="G84" s="2"/>
     </row>
     <row r="85">
       <c r="D85" s="5"/>
+      <c r="G85" s="2"/>
     </row>
     <row r="86">
       <c r="D86" s="5"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87">
       <c r="D87" s="5"/>
+      <c r="G87" s="2"/>
     </row>
     <row r="88">
       <c r="D88" s="5"/>
+      <c r="G88" s="2"/>
     </row>
     <row r="89">
       <c r="D89" s="5"/>
+      <c r="G89" s="2"/>
     </row>
     <row r="90">
       <c r="D90" s="5"/>
+      <c r="G90" s="2"/>
     </row>
     <row r="91">
       <c r="D91" s="5"/>
+      <c r="G91" s="2"/>
     </row>
     <row r="92">
       <c r="D92" s="5"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93">
       <c r="D93" s="5"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94">
       <c r="D94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95">
       <c r="D95" s="5"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96">
       <c r="D96" s="5"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97">
       <c r="D97" s="5"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98">
       <c r="D98" s="5"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99">
       <c r="D99" s="5"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100">
       <c r="D100" s="5"/>
+      <c r="G100" s="2"/>
     </row>
     <row r="101">
       <c r="D101" s="5"/>
+      <c r="G101" s="5"/>
     </row>
     <row r="102">
       <c r="D102" s="5"/>
+      <c r="G102" s="5"/>
     </row>
     <row r="103">
       <c r="D103" s="5"/>
+      <c r="G103" s="5"/>
     </row>
     <row r="104">
       <c r="D104" s="5"/>
+      <c r="G104" s="5"/>
     </row>
     <row r="105">
       <c r="D105" s="5"/>
+      <c r="G105" s="5"/>
     </row>
     <row r="106">
       <c r="D106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107">
       <c r="D107" s="5"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108">
       <c r="D108" s="5"/>
+      <c r="G108" s="5"/>
     </row>
     <row r="109">
       <c r="D109" s="5"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110">
       <c r="D110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
     <row r="111">
       <c r="D111" s="5"/>
+      <c r="G111" s="5"/>
     </row>
     <row r="112">
       <c r="D112" s="5"/>
+      <c r="G112" s="5"/>
     </row>
     <row r="113">
       <c r="D113" s="5"/>
+      <c r="G113" s="5"/>
     </row>
     <row r="114">
       <c r="D114" s="5"/>
+      <c r="G114" s="5"/>
     </row>
     <row r="115">
       <c r="D115" s="5"/>
+      <c r="G115" s="5"/>
     </row>
     <row r="116">
       <c r="D116" s="5"/>
+      <c r="G116" s="5"/>
     </row>
     <row r="117">
       <c r="D117" s="5"/>
+      <c r="G117" s="5"/>
     </row>
     <row r="118">
       <c r="D118" s="5"/>
+      <c r="G118" s="5"/>
     </row>
     <row r="119">
       <c r="D119" s="5"/>
+      <c r="G119" s="5"/>
     </row>
     <row r="120">
       <c r="D120" s="5"/>
+      <c r="G120" s="5"/>
     </row>
     <row r="121">
       <c r="D121" s="5"/>
+      <c r="G121" s="5"/>
     </row>
     <row r="122">
       <c r="D122" s="5"/>
+      <c r="G122" s="5"/>
     </row>
     <row r="123">
       <c r="D123" s="5"/>
+      <c r="G123" s="5"/>
     </row>
     <row r="124">
       <c r="D124" s="5"/>
+      <c r="G124" s="5"/>
     </row>
     <row r="125">
       <c r="D125" s="5"/>
+      <c r="G125" s="5"/>
     </row>
     <row r="126">
       <c r="D126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
     <row r="127">
       <c r="D127" s="5"/>
+      <c r="G127" s="5"/>
     </row>
     <row r="128">
       <c r="D128" s="5"/>
+      <c r="G128" s="5"/>
     </row>
     <row r="129">
       <c r="D129" s="5"/>
+      <c r="G129" s="5"/>
     </row>
     <row r="130">
       <c r="D130" s="5"/>
+      <c r="G130" s="5"/>
     </row>
     <row r="131">
       <c r="D131" s="5"/>
+      <c r="G131" s="5"/>
     </row>
     <row r="132">
       <c r="D132" s="5"/>
+      <c r="G132" s="5"/>
     </row>
     <row r="133">
       <c r="D133" s="5"/>
+      <c r="G133" s="5"/>
     </row>
     <row r="134">
       <c r="D134" s="5"/>
+      <c r="G134" s="5"/>
     </row>
     <row r="135">
       <c r="D135" s="5"/>
+      <c r="G135" s="5"/>
     </row>
     <row r="136">
       <c r="D136" s="5"/>
+      <c r="G136" s="5"/>
     </row>
     <row r="137">
       <c r="D137" s="5"/>
+      <c r="G137" s="5"/>
     </row>
     <row r="138">
       <c r="D138" s="5"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139">
       <c r="D139" s="5"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140">
       <c r="D140" s="5"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141">
       <c r="D141" s="5"/>
+      <c r="G141" s="5"/>
     </row>
     <row r="142">
       <c r="D142" s="5"/>
+      <c r="G142" s="5"/>
     </row>
     <row r="143">
       <c r="D143" s="5"/>
+      <c r="G143" s="5"/>
     </row>
     <row r="144">
       <c r="D144" s="5"/>
+      <c r="G144" s="5"/>
     </row>
     <row r="145">
       <c r="D145" s="5"/>
+      <c r="G145" s="5"/>
     </row>
     <row r="146">
       <c r="D146" s="5"/>
+      <c r="G146" s="5"/>
     </row>
     <row r="147">
       <c r="D147" s="5"/>
+      <c r="G147" s="5"/>
     </row>
     <row r="148">
       <c r="D148" s="5"/>
+      <c r="G148" s="5"/>
     </row>
     <row r="149">
       <c r="D149" s="5"/>
+      <c r="G149" s="5"/>
     </row>
     <row r="150">
       <c r="D150" s="5"/>
+      <c r="G150" s="5"/>
     </row>
     <row r="151">
       <c r="D151" s="5"/>
+      <c r="G151" s="5"/>
     </row>
     <row r="152">
       <c r="D152" s="5"/>
+      <c r="G152" s="5"/>
     </row>
     <row r="153">
       <c r="D153" s="5"/>
+      <c r="G153" s="5"/>
     </row>
     <row r="154">
       <c r="D154" s="5"/>
+      <c r="G154" s="5"/>
     </row>
     <row r="155">
       <c r="D155" s="5"/>
+      <c r="G155" s="5"/>
     </row>
     <row r="156">
       <c r="D156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
     <row r="157">
       <c r="D157" s="5"/>
+      <c r="G157" s="5"/>
     </row>
     <row r="158">
       <c r="D158" s="5"/>
+      <c r="G158" s="5"/>
     </row>
     <row r="159">
       <c r="D159" s="5"/>
+      <c r="G159" s="5"/>
     </row>
     <row r="160">
       <c r="D160" s="5"/>
+      <c r="G160" s="5"/>
     </row>
     <row r="161">
       <c r="D161" s="5"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162">
       <c r="D162" s="5"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163">
       <c r="D163" s="5"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164">
       <c r="D164" s="5"/>
+      <c r="G164" s="5"/>
     </row>
     <row r="165">
       <c r="D165" s="5"/>
+      <c r="G165" s="5"/>
     </row>
     <row r="166">
       <c r="D166" s="5"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167">
       <c r="D167" s="5"/>
+      <c r="G167" s="5"/>
     </row>
     <row r="168">
       <c r="D168" s="5"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169">
       <c r="D169" s="5"/>
+      <c r="G169" s="5"/>
     </row>
     <row r="170">
       <c r="D170" s="5"/>
+      <c r="G170" s="5"/>
     </row>
     <row r="171">
       <c r="D171" s="5"/>
+      <c r="G171" s="5"/>
     </row>
     <row r="172">
       <c r="D172" s="5"/>
+      <c r="G172" s="5"/>
     </row>
     <row r="173">
       <c r="D173" s="5"/>
+      <c r="G173" s="5"/>
     </row>
     <row r="174">
       <c r="D174" s="5"/>
+      <c r="G174" s="5"/>
     </row>
     <row r="175">
       <c r="D175" s="5"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176">
       <c r="D176" s="5"/>
+      <c r="G176" s="5"/>
     </row>
     <row r="177">
       <c r="D177" s="5"/>
+      <c r="G177" s="5"/>
     </row>
     <row r="178">
       <c r="D178" s="5"/>
+      <c r="G178" s="5"/>
     </row>
     <row r="179">
       <c r="D179" s="5"/>
+      <c r="G179" s="5"/>
     </row>
     <row r="180">
       <c r="D180" s="5"/>
+      <c r="G180" s="5"/>
     </row>
     <row r="181">
       <c r="D181" s="5"/>
+      <c r="G181" s="5"/>
     </row>
     <row r="182">
       <c r="D182" s="5"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183">
       <c r="D183" s="5"/>
+      <c r="G183" s="5"/>
     </row>
     <row r="184">
       <c r="D184" s="5"/>
+      <c r="G184" s="5"/>
     </row>
     <row r="185">
       <c r="D185" s="5"/>
+      <c r="G185" s="5"/>
     </row>
     <row r="186">
       <c r="D186" s="5"/>
+      <c r="G186" s="5"/>
     </row>
     <row r="187">
       <c r="D187" s="5"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188">
       <c r="D188" s="5"/>
+      <c r="G188" s="5"/>
     </row>
     <row r="189">
       <c r="D189" s="5"/>
+      <c r="G189" s="5"/>
     </row>
     <row r="190">
       <c r="D190" s="5"/>
+      <c r="G190" s="5"/>
     </row>
     <row r="191">
       <c r="D191" s="5"/>
+      <c r="G191" s="5"/>
     </row>
     <row r="192">
       <c r="D192" s="5"/>
+      <c r="G192" s="5"/>
     </row>
     <row r="193">
       <c r="D193" s="5"/>
+      <c r="G193" s="5"/>
     </row>
     <row r="194">
       <c r="D194" s="5"/>
+      <c r="G194" s="5"/>
     </row>
     <row r="195">
       <c r="D195" s="5"/>
+      <c r="G195" s="5"/>
     </row>
     <row r="196">
       <c r="D196" s="5"/>
+      <c r="G196" s="5"/>
     </row>
     <row r="197">
       <c r="D197" s="5"/>
+      <c r="G197" s="5"/>
     </row>
     <row r="198">
       <c r="D198" s="5"/>
+      <c r="G198" s="5"/>
     </row>
     <row r="199">
       <c r="D199" s="5"/>
+      <c r="G199" s="5"/>
     </row>
     <row r="200">
       <c r="D200" s="5"/>
+      <c r="G200" s="5"/>
     </row>
     <row r="201">
       <c r="D201" s="5"/>
+      <c r="G201" s="5"/>
     </row>
     <row r="202">
       <c r="D202" s="5"/>
+      <c r="G202" s="5"/>
     </row>
     <row r="203">
       <c r="D203" s="5"/>
+      <c r="G203" s="5"/>
     </row>
     <row r="204">
       <c r="D204" s="5"/>
+      <c r="G204" s="5"/>
     </row>
     <row r="205">
       <c r="D205" s="5"/>
+      <c r="G205" s="5"/>
     </row>
     <row r="206">
       <c r="D206" s="5"/>
+      <c r="G206" s="5"/>
     </row>
     <row r="207">
       <c r="D207" s="5"/>
+      <c r="G207" s="5"/>
     </row>
     <row r="208">
       <c r="D208" s="5"/>
+      <c r="G208" s="5"/>
     </row>
     <row r="209">
       <c r="D209" s="5"/>
+      <c r="G209" s="5"/>
     </row>
     <row r="210">
       <c r="D210" s="5"/>
+      <c r="G210" s="5"/>
     </row>
     <row r="211">
       <c r="D211" s="5"/>
+      <c r="G211" s="5"/>
     </row>
     <row r="212">
       <c r="D212" s="5"/>
+      <c r="G212" s="5"/>
     </row>
     <row r="213">
       <c r="D213" s="5"/>
+      <c r="G213" s="5"/>
     </row>
     <row r="214">
       <c r="D214" s="5"/>
+      <c r="G214" s="5"/>
     </row>
     <row r="215">
       <c r="D215" s="5"/>
+      <c r="G215" s="5"/>
     </row>
     <row r="216">
       <c r="D216" s="5"/>
+      <c r="G216" s="5"/>
     </row>
     <row r="217">
       <c r="D217" s="5"/>
+      <c r="G217" s="5"/>
     </row>
     <row r="218">
       <c r="D218" s="5"/>
+      <c r="G218" s="5"/>
     </row>
     <row r="219">
       <c r="D219" s="5"/>
+      <c r="G219" s="5"/>
     </row>
     <row r="220">
       <c r="D220" s="5"/>
+      <c r="G220" s="5"/>
     </row>
     <row r="221">
       <c r="D221" s="5"/>
+      <c r="G221" s="5"/>
     </row>
     <row r="222">
       <c r="D222" s="5"/>
+      <c r="G222" s="5"/>
     </row>
     <row r="223">
       <c r="D223" s="5"/>
+      <c r="G223" s="5"/>
     </row>
     <row r="224">
       <c r="D224" s="5"/>
+      <c r="G224" s="5"/>
     </row>
     <row r="225">
       <c r="D225" s="5"/>
+      <c r="G225" s="5"/>
     </row>
     <row r="226">
       <c r="D226" s="5"/>
+      <c r="G226" s="5"/>
     </row>
     <row r="227">
       <c r="D227" s="5"/>
+      <c r="G227" s="5"/>
     </row>
     <row r="228">
       <c r="D228" s="5"/>
+      <c r="G228" s="5"/>
     </row>
     <row r="229">
       <c r="D229" s="5"/>
+      <c r="G229" s="5"/>
     </row>
     <row r="230">
       <c r="D230" s="5"/>
+      <c r="G230" s="5"/>
     </row>
     <row r="231">
       <c r="D231" s="5"/>
+      <c r="G231" s="5"/>
     </row>
     <row r="232">
       <c r="D232" s="5"/>
+      <c r="G232" s="5"/>
     </row>
     <row r="233">
       <c r="D233" s="5"/>
+      <c r="G233" s="5"/>
     </row>
     <row r="234">
       <c r="D234" s="5"/>
+      <c r="G234" s="5"/>
     </row>
     <row r="235">
       <c r="D235" s="5"/>
+      <c r="G235" s="5"/>
     </row>
     <row r="236">
       <c r="D236" s="5"/>
+      <c r="G236" s="5"/>
     </row>
     <row r="237">
       <c r="D237" s="5"/>
+      <c r="G237" s="5"/>
     </row>
     <row r="238">
       <c r="D238" s="5"/>
+      <c r="G238" s="5"/>
     </row>
     <row r="239">
       <c r="D239" s="5"/>
+      <c r="G239" s="5"/>
     </row>
     <row r="240">
       <c r="D240" s="5"/>
+      <c r="G240" s="5"/>
     </row>
     <row r="241">
       <c r="D241" s="5"/>
+      <c r="G241" s="5"/>
     </row>
     <row r="242">
       <c r="D242" s="5"/>
+      <c r="G242" s="5"/>
     </row>
     <row r="243">
       <c r="D243" s="5"/>
+      <c r="G243" s="5"/>
     </row>
     <row r="244">
       <c r="D244" s="5"/>
+      <c r="G244" s="5"/>
     </row>
     <row r="245">
       <c r="D245" s="5"/>
+      <c r="G245" s="5"/>
     </row>
     <row r="246">
       <c r="D246" s="5"/>
+      <c r="G246" s="5"/>
     </row>
     <row r="247">
       <c r="D247" s="5"/>
+      <c r="G247" s="5"/>
     </row>
     <row r="248">
       <c r="D248" s="5"/>
+      <c r="G248" s="5"/>
     </row>
     <row r="249">
       <c r="D249" s="5"/>
+      <c r="G249" s="5"/>
     </row>
     <row r="250">
       <c r="D250" s="5"/>
+      <c r="G250" s="5"/>
     </row>
     <row r="251">
       <c r="D251" s="5"/>
+      <c r="G251" s="5"/>
     </row>
     <row r="252">
       <c r="D252" s="5"/>
+      <c r="G252" s="5"/>
     </row>
     <row r="253">
       <c r="D253" s="5"/>
+      <c r="G253" s="5"/>
     </row>
     <row r="254">
       <c r="D254" s="5"/>
+      <c r="G254" s="5"/>
     </row>
     <row r="255">
       <c r="D255" s="5"/>
+      <c r="G255" s="5"/>
     </row>
     <row r="256">
       <c r="D256" s="5"/>
+      <c r="G256" s="5"/>
     </row>
     <row r="257">
       <c r="D257" s="5"/>
+      <c r="G257" s="5"/>
     </row>
     <row r="258">
       <c r="D258" s="5"/>
+      <c r="G258" s="5"/>
     </row>
     <row r="259">
       <c r="D259" s="5"/>
+      <c r="G259" s="5"/>
     </row>
     <row r="260">
       <c r="D260" s="5"/>
+      <c r="G260" s="5"/>
     </row>
     <row r="261">
       <c r="D261" s="5"/>
+      <c r="G261" s="5"/>
     </row>
     <row r="262">
       <c r="D262" s="5"/>
+      <c r="G262" s="5"/>
     </row>
     <row r="263">
       <c r="D263" s="5"/>
+      <c r="G263" s="5"/>
     </row>
     <row r="264">
       <c r="D264" s="5"/>
+      <c r="G264" s="5"/>
     </row>
     <row r="265">
       <c r="D265" s="5"/>
+      <c r="G265" s="5"/>
     </row>
     <row r="266">
       <c r="D266" s="5"/>
+      <c r="G266" s="5"/>
     </row>
     <row r="267">
       <c r="D267" s="5"/>
+      <c r="G267" s="5"/>
     </row>
     <row r="268">
       <c r="D268" s="5"/>
+      <c r="G268" s="5"/>
     </row>
     <row r="269">
       <c r="D269" s="5"/>
+      <c r="G269" s="5"/>
     </row>
     <row r="270">
       <c r="D270" s="5"/>
+      <c r="G270" s="5"/>
     </row>
     <row r="271">
       <c r="D271" s="5"/>
+      <c r="G271" s="5"/>
     </row>
     <row r="272">
       <c r="D272" s="5"/>
+      <c r="G272" s="5"/>
     </row>
     <row r="273">
       <c r="D273" s="5"/>
+      <c r="G273" s="5"/>
     </row>
     <row r="274">
       <c r="D274" s="5"/>
+      <c r="G274" s="5"/>
     </row>
     <row r="275">
       <c r="D275" s="5"/>
+      <c r="G275" s="5"/>
     </row>
     <row r="276">
       <c r="D276" s="5"/>
+      <c r="G276" s="5"/>
     </row>
     <row r="277">
       <c r="D277" s="5"/>
+      <c r="G277" s="5"/>
     </row>
     <row r="278">
       <c r="D278" s="5"/>
+      <c r="G278" s="5"/>
     </row>
     <row r="279">
       <c r="D279" s="5"/>
+      <c r="G279" s="5"/>
     </row>
     <row r="280">
       <c r="D280" s="5"/>
+      <c r="G280" s="5"/>
     </row>
     <row r="281">
       <c r="D281" s="5"/>
+      <c r="G281" s="5"/>
     </row>
     <row r="282">
       <c r="D282" s="5"/>
+      <c r="G282" s="5"/>
     </row>
     <row r="283">
       <c r="D283" s="5"/>
+      <c r="G283" s="5"/>
     </row>
     <row r="284">
       <c r="D284" s="5"/>
+      <c r="G284" s="5"/>
     </row>
     <row r="285">
       <c r="D285" s="5"/>
+      <c r="G285" s="5"/>
     </row>
     <row r="286">
       <c r="D286" s="5"/>
+      <c r="G286" s="5"/>
     </row>
     <row r="287">
       <c r="D287" s="5"/>
+      <c r="G287" s="5"/>
     </row>
     <row r="288">
       <c r="D288" s="5"/>
+      <c r="G288" s="5"/>
     </row>
     <row r="289">
       <c r="D289" s="5"/>
+      <c r="G289" s="5"/>
     </row>
     <row r="290">
       <c r="D290" s="5"/>
+      <c r="G290" s="5"/>
     </row>
     <row r="291">
       <c r="D291" s="5"/>
+      <c r="G291" s="5"/>
     </row>
     <row r="292">
       <c r="D292" s="5"/>
+      <c r="G292" s="5"/>
     </row>
     <row r="293">
       <c r="D293" s="5"/>
+      <c r="G293" s="5"/>
     </row>
     <row r="294">
       <c r="D294" s="5"/>
+      <c r="G294" s="5"/>
     </row>
     <row r="295">
       <c r="D295" s="5"/>
+      <c r="G295" s="5"/>
     </row>
     <row r="296">
       <c r="D296" s="5"/>
+      <c r="G296" s="5"/>
     </row>
     <row r="297">
       <c r="D297" s="5"/>
+      <c r="G297" s="5"/>
     </row>
     <row r="298">
       <c r="D298" s="5"/>
+      <c r="G298" s="5"/>
     </row>
     <row r="299">
       <c r="D299" s="5"/>
+      <c r="G299" s="5"/>
     </row>
     <row r="300">
       <c r="D300" s="5"/>
+      <c r="G300" s="5"/>
     </row>
     <row r="301">
       <c r="D301" s="5"/>
+      <c r="G301" s="5"/>
     </row>
     <row r="302">
       <c r="D302" s="5"/>
+      <c r="G302" s="5"/>
     </row>
     <row r="303">
       <c r="D303" s="5"/>
+      <c r="G303" s="5"/>
     </row>
     <row r="304">
       <c r="D304" s="5"/>
+      <c r="G304" s="5"/>
     </row>
     <row r="305">
       <c r="D305" s="5"/>
+      <c r="G305" s="5"/>
     </row>
     <row r="306">
       <c r="D306" s="5"/>
+      <c r="G306" s="5"/>
     </row>
     <row r="307">
       <c r="D307" s="5"/>
+      <c r="G307" s="5"/>
     </row>
     <row r="308">
       <c r="D308" s="5"/>
+      <c r="G308" s="5"/>
     </row>
     <row r="309">
       <c r="D309" s="5"/>
+      <c r="G309" s="5"/>
     </row>
     <row r="310">
       <c r="D310" s="5"/>
+      <c r="G310" s="5"/>
     </row>
     <row r="311">
       <c r="D311" s="5"/>
+      <c r="G311" s="5"/>
     </row>
     <row r="312">
       <c r="D312" s="5"/>
+      <c r="G312" s="5"/>
     </row>
     <row r="313">
       <c r="D313" s="5"/>
+      <c r="G313" s="5"/>
     </row>
     <row r="314">
       <c r="D314" s="5"/>
+      <c r="G314" s="5"/>
     </row>
     <row r="315">
       <c r="D315" s="5"/>
+      <c r="G315" s="5"/>
     </row>
     <row r="316">
       <c r="D316" s="5"/>
+      <c r="G316" s="5"/>
     </row>
     <row r="317">
       <c r="D317" s="5"/>
+      <c r="G317" s="5"/>
     </row>
     <row r="318">
       <c r="D318" s="5"/>
+      <c r="G318" s="5"/>
     </row>
     <row r="319">
       <c r="D319" s="5"/>
+      <c r="G319" s="5"/>
     </row>
     <row r="320">
       <c r="D320" s="5"/>
+      <c r="G320" s="5"/>
     </row>
     <row r="321">
       <c r="D321" s="5"/>
+      <c r="G321" s="5"/>
     </row>
     <row r="322">
       <c r="D322" s="5"/>
+      <c r="G322" s="5"/>
     </row>
     <row r="323">
       <c r="D323" s="5"/>
+      <c r="G323" s="5"/>
     </row>
     <row r="324">
       <c r="D324" s="5"/>
+      <c r="G324" s="5"/>
     </row>
     <row r="325">
       <c r="D325" s="5"/>
+      <c r="G325" s="5"/>
     </row>
     <row r="326">
       <c r="D326" s="5"/>
+      <c r="G326" s="5"/>
     </row>
     <row r="327">
       <c r="D327" s="5"/>
+      <c r="G327" s="5"/>
     </row>
     <row r="328">
       <c r="D328" s="5"/>
+      <c r="G328" s="5"/>
     </row>
     <row r="329">
       <c r="D329" s="5"/>
+      <c r="G329" s="5"/>
     </row>
     <row r="330">
       <c r="D330" s="5"/>
+      <c r="G330" s="5"/>
     </row>
     <row r="331">
       <c r="D331" s="5"/>
+      <c r="G331" s="5"/>
     </row>
     <row r="332">
       <c r="D332" s="5"/>
+      <c r="G332" s="5"/>
     </row>
     <row r="333">
       <c r="D333" s="5"/>
+      <c r="G333" s="5"/>
     </row>
     <row r="334">
       <c r="D334" s="5"/>
+      <c r="G334" s="5"/>
     </row>
     <row r="335">
       <c r="D335" s="5"/>
+      <c r="G335" s="5"/>
     </row>
     <row r="336">
       <c r="D336" s="5"/>
+      <c r="G336" s="5"/>
     </row>
     <row r="337">
       <c r="D337" s="5"/>
+      <c r="G337" s="5"/>
     </row>
     <row r="338">
       <c r="D338" s="5"/>
+      <c r="G338" s="5"/>
     </row>
     <row r="339">
       <c r="D339" s="5"/>
+      <c r="G339" s="5"/>
     </row>
     <row r="340">
       <c r="D340" s="5"/>
+      <c r="G340" s="5"/>
     </row>
     <row r="341">
       <c r="D341" s="5"/>
+      <c r="G341" s="5"/>
     </row>
     <row r="342">
       <c r="D342" s="5"/>
+      <c r="G342" s="5"/>
     </row>
     <row r="343">
       <c r="D343" s="5"/>
+      <c r="G343" s="5"/>
     </row>
     <row r="344">
       <c r="D344" s="5"/>
+      <c r="G344" s="5"/>
     </row>
     <row r="345">
       <c r="D345" s="5"/>
+      <c r="G345" s="5"/>
     </row>
     <row r="346">
       <c r="D346" s="5"/>
+      <c r="G346" s="5"/>
     </row>
     <row r="347">
       <c r="D347" s="5"/>
+      <c r="G347" s="5"/>
     </row>
     <row r="348">
       <c r="D348" s="5"/>
+      <c r="G348" s="5"/>
     </row>
     <row r="349">
       <c r="D349" s="5"/>
+      <c r="G349" s="5"/>
     </row>
     <row r="350">
       <c r="D350" s="5"/>
+      <c r="G350" s="5"/>
     </row>
     <row r="351">
       <c r="D351" s="5"/>
+      <c r="G351" s="5"/>
     </row>
     <row r="352">
       <c r="D352" s="5"/>
+      <c r="G352" s="5"/>
     </row>
     <row r="353">
       <c r="D353" s="5"/>
+      <c r="G353" s="5"/>
     </row>
     <row r="354">
       <c r="D354" s="5"/>
+      <c r="G354" s="5"/>
     </row>
     <row r="355">
       <c r="D355" s="5"/>
+      <c r="G355" s="5"/>
     </row>
     <row r="356">
       <c r="D356" s="5"/>
+      <c r="G356" s="5"/>
     </row>
     <row r="357">
       <c r="D357" s="5"/>
+      <c r="G357" s="5"/>
     </row>
     <row r="358">
       <c r="D358" s="5"/>
+      <c r="G358" s="5"/>
     </row>
     <row r="359">
       <c r="D359" s="5"/>
+      <c r="G359" s="5"/>
     </row>
     <row r="360">
       <c r="D360" s="5"/>
+      <c r="G360" s="5"/>
     </row>
     <row r="361">
       <c r="D361" s="5"/>
+      <c r="G361" s="5"/>
     </row>
     <row r="362">
       <c r="D362" s="5"/>
+      <c r="G362" s="5"/>
     </row>
     <row r="363">
       <c r="D363" s="5"/>
+      <c r="G363" s="5"/>
     </row>
     <row r="364">
       <c r="D364" s="5"/>
+      <c r="G364" s="5"/>
     </row>
     <row r="365">
       <c r="D365" s="5"/>
+      <c r="G365" s="5"/>
     </row>
     <row r="366">
       <c r="D366" s="5"/>
+      <c r="G366" s="5"/>
     </row>
     <row r="367">
       <c r="D367" s="5"/>
+      <c r="G367" s="5"/>
     </row>
     <row r="368">
       <c r="D368" s="5"/>
+      <c r="G368" s="5"/>
     </row>
     <row r="369">
       <c r="D369" s="5"/>
+      <c r="G369" s="5"/>
     </row>
     <row r="370">
       <c r="D370" s="5"/>
+      <c r="G370" s="5"/>
     </row>
     <row r="371">
       <c r="D371" s="5"/>
+      <c r="G371" s="5"/>
     </row>
     <row r="372">
       <c r="D372" s="5"/>
+      <c r="G372" s="5"/>
     </row>
     <row r="373">
       <c r="D373" s="5"/>
+      <c r="G373" s="5"/>
     </row>
     <row r="374">
       <c r="D374" s="5"/>
+      <c r="G374" s="5"/>
     </row>
     <row r="375">
       <c r="D375" s="5"/>
+      <c r="G375" s="5"/>
     </row>
     <row r="376">
       <c r="D376" s="5"/>
+      <c r="G376" s="5"/>
     </row>
     <row r="377">
       <c r="D377" s="5"/>
+      <c r="G377" s="5"/>
     </row>
     <row r="378">
       <c r="D378" s="5"/>
+      <c r="G378" s="5"/>
     </row>
     <row r="379">
       <c r="D379" s="5"/>
+      <c r="G379" s="5"/>
     </row>
     <row r="380">
       <c r="D380" s="5"/>
+      <c r="G380" s="5"/>
     </row>
     <row r="381">
       <c r="D381" s="5"/>
+      <c r="G381" s="5"/>
     </row>
     <row r="382">
       <c r="D382" s="5"/>
+      <c r="G382" s="5"/>
     </row>
     <row r="383">
       <c r="D383" s="5"/>
+      <c r="G383" s="5"/>
     </row>
     <row r="384">
       <c r="D384" s="5"/>
+      <c r="G384" s="5"/>
     </row>
     <row r="385">
       <c r="D385" s="5"/>
+      <c r="G385" s="5"/>
     </row>
     <row r="386">
       <c r="D386" s="5"/>
+      <c r="G386" s="5"/>
     </row>
     <row r="387">
       <c r="D387" s="5"/>
+      <c r="G387" s="5"/>
     </row>
     <row r="388">
       <c r="D388" s="5"/>
+      <c r="G388" s="5"/>
     </row>
     <row r="389">
       <c r="D389" s="5"/>
+      <c r="G389" s="5"/>
     </row>
     <row r="390">
       <c r="D390" s="5"/>
+      <c r="G390" s="5"/>
     </row>
     <row r="391">
       <c r="D391" s="5"/>
+      <c r="G391" s="5"/>
     </row>
     <row r="392">
       <c r="D392" s="5"/>
+      <c r="G392" s="5"/>
     </row>
     <row r="393">
       <c r="D393" s="5"/>
+      <c r="G393" s="5"/>
     </row>
     <row r="394">
       <c r="D394" s="5"/>
+      <c r="G394" s="5"/>
     </row>
     <row r="395">
       <c r="D395" s="5"/>
+      <c r="G395" s="5"/>
     </row>
     <row r="396">
       <c r="D396" s="5"/>
+      <c r="G396" s="5"/>
     </row>
     <row r="397">
       <c r="D397" s="5"/>
+      <c r="G397" s="5"/>
     </row>
     <row r="398">
       <c r="D398" s="5"/>
+      <c r="G398" s="5"/>
     </row>
     <row r="399">
       <c r="D399" s="5"/>
+      <c r="G399" s="5"/>
     </row>
     <row r="400">
       <c r="D400" s="5"/>
+      <c r="G400" s="5"/>
     </row>
     <row r="401">
       <c r="D401" s="5"/>
+      <c r="G401" s="5"/>
     </row>
     <row r="402">
       <c r="D402" s="5"/>
+      <c r="G402" s="5"/>
     </row>
     <row r="403">
       <c r="D403" s="5"/>
+      <c r="G403" s="5"/>
     </row>
     <row r="404">
       <c r="D404" s="5"/>
+      <c r="G404" s="5"/>
     </row>
     <row r="405">
       <c r="D405" s="5"/>
+      <c r="G405" s="5"/>
     </row>
     <row r="406">
       <c r="D406" s="5"/>
+      <c r="G406" s="5"/>
     </row>
     <row r="407">
       <c r="D407" s="5"/>
+      <c r="G407" s="5"/>
     </row>
     <row r="408">
       <c r="D408" s="5"/>
+      <c r="G408" s="5"/>
     </row>
     <row r="409">
       <c r="D409" s="5"/>
+      <c r="G409" s="5"/>
     </row>
     <row r="410">
       <c r="D410" s="5"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411">
       <c r="D411" s="5"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412">
       <c r="D412" s="5"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413">
       <c r="D413" s="5"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414">
       <c r="D414" s="5"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415">
       <c r="D415" s="5"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416">
       <c r="D416" s="5"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417">
       <c r="D417" s="5"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418">
       <c r="D418" s="5"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419">
       <c r="D419" s="5"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420">
       <c r="D420" s="5"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421">
       <c r="D421" s="5"/>
+      <c r="G421" s="5"/>
     </row>
     <row r="422">
       <c r="D422" s="5"/>
+      <c r="G422" s="5"/>
     </row>
     <row r="423">
       <c r="D423" s="5"/>
+      <c r="G423" s="5"/>
     </row>
     <row r="424">
       <c r="D424" s="5"/>
+      <c r="G424" s="5"/>
     </row>
     <row r="425">
       <c r="D425" s="5"/>
+      <c r="G425" s="5"/>
     </row>
     <row r="426">
       <c r="D426" s="5"/>
+      <c r="G426" s="5"/>
     </row>
     <row r="427">
       <c r="D427" s="5"/>
+      <c r="G427" s="5"/>
     </row>
     <row r="428">
       <c r="D428" s="5"/>
+      <c r="G428" s="5"/>
     </row>
     <row r="429">
       <c r="D429" s="5"/>
+      <c r="G429" s="5"/>
     </row>
     <row r="430">
       <c r="D430" s="5"/>
+      <c r="G430" s="5"/>
     </row>
     <row r="431">
       <c r="D431" s="5"/>
+      <c r="G431" s="5"/>
     </row>
     <row r="432">
       <c r="D432" s="5"/>
+      <c r="G432" s="5"/>
     </row>
     <row r="433">
       <c r="D433" s="5"/>
+      <c r="G433" s="5"/>
     </row>
     <row r="434">
       <c r="D434" s="5"/>
+      <c r="G434" s="5"/>
     </row>
     <row r="435">
       <c r="D435" s="5"/>
+      <c r="G435" s="5"/>
     </row>
     <row r="436">
       <c r="D436" s="5"/>
+      <c r="G436" s="5"/>
     </row>
     <row r="437">
       <c r="D437" s="5"/>
+      <c r="G437" s="5"/>
     </row>
     <row r="438">
       <c r="D438" s="5"/>
+      <c r="G438" s="5"/>
     </row>
     <row r="439">
       <c r="D439" s="5"/>
+      <c r="G439" s="5"/>
     </row>
     <row r="440">
       <c r="D440" s="5"/>
+      <c r="G440" s="5"/>
     </row>
     <row r="441">
       <c r="D441" s="5"/>
+      <c r="G441" s="5"/>
     </row>
     <row r="442">
       <c r="D442" s="5"/>
+      <c r="G442" s="5"/>
     </row>
     <row r="443">
       <c r="D443" s="5"/>
+      <c r="G443" s="5"/>
     </row>
     <row r="444">
       <c r="D444" s="5"/>
+      <c r="G444" s="5"/>
     </row>
     <row r="445">
       <c r="D445" s="5"/>
+      <c r="G445" s="5"/>
     </row>
     <row r="446">
       <c r="D446" s="5"/>
+      <c r="G446" s="5"/>
     </row>
     <row r="447">
       <c r="D447" s="5"/>
+      <c r="G447" s="5"/>
     </row>
     <row r="448">
       <c r="D448" s="5"/>
+      <c r="G448" s="5"/>
     </row>
     <row r="449">
       <c r="D449" s="5"/>
+      <c r="G449" s="5"/>
     </row>
     <row r="450">
       <c r="D450" s="5"/>
+      <c r="G450" s="5"/>
     </row>
     <row r="451">
       <c r="D451" s="5"/>
+      <c r="G451" s="5"/>
     </row>
     <row r="452">
       <c r="D452" s="5"/>
+      <c r="G452" s="5"/>
     </row>
     <row r="453">
       <c r="D453" s="5"/>
+      <c r="G453" s="5"/>
     </row>
     <row r="454">
       <c r="D454" s="5"/>
+      <c r="G454" s="5"/>
     </row>
     <row r="455">
       <c r="D455" s="5"/>
+      <c r="G455" s="5"/>
     </row>
     <row r="456">
       <c r="D456" s="5"/>
+      <c r="G456" s="5"/>
     </row>
     <row r="457">
       <c r="D457" s="5"/>
+      <c r="G457" s="5"/>
     </row>
     <row r="458">
       <c r="D458" s="5"/>
+      <c r="G458" s="5"/>
     </row>
     <row r="459">
       <c r="D459" s="5"/>
+      <c r="G459" s="5"/>
     </row>
     <row r="460">
       <c r="D460" s="5"/>
+      <c r="G460" s="5"/>
     </row>
     <row r="461">
       <c r="D461" s="5"/>
+      <c r="G461" s="5"/>
     </row>
     <row r="462">
       <c r="D462" s="5"/>
+      <c r="G462" s="5"/>
     </row>
     <row r="463">
       <c r="D463" s="5"/>
+      <c r="G463" s="5"/>
     </row>
     <row r="464">
       <c r="D464" s="5"/>
+      <c r="G464" s="5"/>
     </row>
     <row r="465">
       <c r="D465" s="5"/>
+      <c r="G465" s="5"/>
     </row>
     <row r="466">
       <c r="D466" s="5"/>
+      <c r="G466" s="5"/>
     </row>
     <row r="467">
       <c r="D467" s="5"/>
+      <c r="G467" s="5"/>
     </row>
     <row r="468">
       <c r="D468" s="5"/>
+      <c r="G468" s="5"/>
     </row>
     <row r="469">
       <c r="D469" s="5"/>
+      <c r="G469" s="5"/>
     </row>
     <row r="470">
       <c r="D470" s="5"/>
+      <c r="G470" s="5"/>
     </row>
     <row r="471">
       <c r="D471" s="5"/>
+      <c r="G471" s="5"/>
     </row>
     <row r="472">
       <c r="D472" s="5"/>
+      <c r="G472" s="5"/>
     </row>
     <row r="473">
       <c r="D473" s="5"/>
+      <c r="G473" s="5"/>
     </row>
     <row r="474">
       <c r="D474" s="5"/>
+      <c r="G474" s="5"/>
     </row>
     <row r="475">
       <c r="D475" s="5"/>
+      <c r="G475" s="5"/>
     </row>
     <row r="476">
       <c r="D476" s="5"/>
+      <c r="G476" s="5"/>
     </row>
     <row r="477">
       <c r="D477" s="5"/>
+      <c r="G477" s="5"/>
     </row>
     <row r="478">
       <c r="D478" s="5"/>
+      <c r="G478" s="5"/>
     </row>
     <row r="479">
       <c r="D479" s="5"/>
+      <c r="G479" s="5"/>
     </row>
     <row r="480">
       <c r="D480" s="5"/>
+      <c r="G480" s="5"/>
     </row>
     <row r="481">
       <c r="D481" s="5"/>
+      <c r="G481" s="5"/>
     </row>
     <row r="482">
       <c r="D482" s="5"/>
+      <c r="G482" s="5"/>
     </row>
     <row r="483">
       <c r="D483" s="5"/>
+      <c r="G483" s="5"/>
     </row>
     <row r="484">
       <c r="D484" s="5"/>
+      <c r="G484" s="5"/>
     </row>
     <row r="485">
       <c r="D485" s="5"/>
+      <c r="G485" s="5"/>
     </row>
     <row r="486">
       <c r="D486" s="5"/>
+      <c r="G486" s="5"/>
     </row>
     <row r="487">
       <c r="D487" s="5"/>
+      <c r="G487" s="5"/>
     </row>
     <row r="488">
       <c r="D488" s="5"/>
+      <c r="G488" s="5"/>
     </row>
     <row r="489">
       <c r="D489" s="5"/>
+      <c r="G489" s="5"/>
     </row>
     <row r="490">
       <c r="D490" s="5"/>
+      <c r="G490" s="5"/>
     </row>
     <row r="491">
       <c r="D491" s="5"/>
+      <c r="G491" s="5"/>
     </row>
     <row r="492">
       <c r="D492" s="5"/>
+      <c r="G492" s="5"/>
     </row>
     <row r="493">
       <c r="D493" s="5"/>
+      <c r="G493" s="5"/>
     </row>
     <row r="494">
       <c r="D494" s="5"/>
+      <c r="G494" s="5"/>
     </row>
     <row r="495">
       <c r="D495" s="5"/>
+      <c r="G495" s="5"/>
     </row>
     <row r="496">
       <c r="D496" s="5"/>
+      <c r="G496" s="5"/>
     </row>
     <row r="497">
       <c r="D497" s="5"/>
+      <c r="G497" s="5"/>
     </row>
     <row r="498">
       <c r="D498" s="5"/>
+      <c r="G498" s="5"/>
     </row>
     <row r="499">
       <c r="D499" s="5"/>
+      <c r="G499" s="5"/>
     </row>
     <row r="500">
       <c r="D500" s="5"/>
+      <c r="G500" s="5"/>
     </row>
     <row r="501">
       <c r="D501" s="5"/>
+      <c r="G501" s="5"/>
     </row>
     <row r="502">
       <c r="D502" s="5"/>
+      <c r="G502" s="5"/>
     </row>
     <row r="503">
       <c r="D503" s="5"/>
+      <c r="G503" s="5"/>
     </row>
     <row r="504">
       <c r="D504" s="5"/>
+      <c r="G504" s="5"/>
     </row>
     <row r="505">
       <c r="D505" s="5"/>
+      <c r="G505" s="5"/>
     </row>
     <row r="506">
       <c r="D506" s="5"/>
+      <c r="G506" s="5"/>
     </row>
     <row r="507">
       <c r="D507" s="5"/>
+      <c r="G507" s="5"/>
     </row>
     <row r="508">
       <c r="D508" s="5"/>
+      <c r="G508" s="5"/>
     </row>
     <row r="509">
       <c r="D509" s="5"/>
+      <c r="G509" s="5"/>
     </row>
     <row r="510">
       <c r="D510" s="5"/>
+      <c r="G510" s="5"/>
     </row>
     <row r="511">
       <c r="D511" s="5"/>
+      <c r="G511" s="5"/>
     </row>
     <row r="512">
       <c r="D512" s="5"/>
+      <c r="G512" s="5"/>
     </row>
     <row r="513">
       <c r="D513" s="5"/>
+      <c r="G513" s="5"/>
     </row>
     <row r="514">
       <c r="D514" s="5"/>
+      <c r="G514" s="5"/>
     </row>
     <row r="515">
       <c r="D515" s="5"/>
+      <c r="G515" s="5"/>
     </row>
     <row r="516">
       <c r="D516" s="5"/>
+      <c r="G516" s="5"/>
     </row>
     <row r="517">
       <c r="D517" s="5"/>
+      <c r="G517" s="5"/>
     </row>
     <row r="518">
       <c r="D518" s="5"/>
+      <c r="G518" s="5"/>
     </row>
     <row r="519">
       <c r="D519" s="5"/>
+      <c r="G519" s="5"/>
     </row>
     <row r="520">
       <c r="D520" s="5"/>
+      <c r="G520" s="5"/>
     </row>
     <row r="521">
       <c r="D521" s="5"/>
+      <c r="G521" s="5"/>
     </row>
     <row r="522">
       <c r="D522" s="5"/>
+      <c r="G522" s="5"/>
     </row>
     <row r="523">
       <c r="D523" s="5"/>
+      <c r="G523" s="5"/>
     </row>
     <row r="524">
       <c r="D524" s="5"/>
+      <c r="G524" s="5"/>
     </row>
     <row r="525">
       <c r="D525" s="5"/>
+      <c r="G525" s="5"/>
     </row>
     <row r="526">
       <c r="D526" s="5"/>
+      <c r="G526" s="5"/>
     </row>
     <row r="527">
       <c r="D527" s="5"/>
+      <c r="G527" s="5"/>
     </row>
     <row r="528">
       <c r="D528" s="5"/>
+      <c r="G528" s="5"/>
     </row>
     <row r="529">
       <c r="D529" s="5"/>
+      <c r="G529" s="5"/>
     </row>
     <row r="530">
       <c r="D530" s="5"/>
+      <c r="G530" s="5"/>
     </row>
     <row r="531">
       <c r="D531" s="5"/>
+      <c r="G531" s="5"/>
     </row>
     <row r="532">
       <c r="D532" s="5"/>
+      <c r="G532" s="5"/>
     </row>
     <row r="533">
       <c r="D533" s="5"/>
+      <c r="G533" s="5"/>
     </row>
     <row r="534">
       <c r="D534" s="5"/>
+      <c r="G534" s="5"/>
     </row>
     <row r="535">
       <c r="D535" s="5"/>
+      <c r="G535" s="5"/>
     </row>
     <row r="536">
       <c r="D536" s="5"/>
+      <c r="G536" s="5"/>
     </row>
     <row r="537">
       <c r="D537" s="5"/>
+      <c r="G537" s="5"/>
     </row>
     <row r="538">
       <c r="D538" s="5"/>
+      <c r="G538" s="5"/>
     </row>
     <row r="539">
       <c r="D539" s="5"/>
+      <c r="G539" s="5"/>
     </row>
     <row r="540">
       <c r="D540" s="5"/>
+      <c r="G540" s="5"/>
     </row>
     <row r="541">
       <c r="D541" s="5"/>
+      <c r="G541" s="5"/>
     </row>
     <row r="542">
       <c r="D542" s="5"/>
+      <c r="G542" s="5"/>
     </row>
     <row r="543">
       <c r="D543" s="5"/>
+      <c r="G543" s="5"/>
     </row>
     <row r="544">
       <c r="D544" s="5"/>
+      <c r="G544" s="5"/>
     </row>
     <row r="545">
       <c r="D545" s="5"/>
+      <c r="G545" s="5"/>
     </row>
     <row r="546">
       <c r="D546" s="5"/>
+      <c r="G546" s="5"/>
     </row>
     <row r="547">
       <c r="D547" s="5"/>
+      <c r="G547" s="5"/>
     </row>
     <row r="548">
       <c r="D548" s="5"/>
+      <c r="G548" s="5"/>
     </row>
     <row r="549">
       <c r="D549" s="5"/>
+      <c r="G549" s="5"/>
     </row>
     <row r="550">
       <c r="D550" s="5"/>
+      <c r="G550" s="5"/>
     </row>
     <row r="551">
       <c r="D551" s="5"/>
+      <c r="G551" s="5"/>
     </row>
     <row r="552">
       <c r="D552" s="5"/>
+      <c r="G552" s="5"/>
     </row>
     <row r="553">
       <c r="D553" s="5"/>
+      <c r="G553" s="5"/>
     </row>
     <row r="554">
       <c r="D554" s="5"/>
+      <c r="G554" s="5"/>
     </row>
     <row r="555">
       <c r="D555" s="5"/>
+      <c r="G555" s="5"/>
     </row>
     <row r="556">
       <c r="D556" s="5"/>
+      <c r="G556" s="5"/>
     </row>
     <row r="557">
       <c r="D557" s="5"/>
+      <c r="G557" s="5"/>
     </row>
     <row r="558">
       <c r="D558" s="5"/>
+      <c r="G558" s="5"/>
     </row>
     <row r="559">
       <c r="D559" s="5"/>
+      <c r="G559" s="5"/>
     </row>
     <row r="560">
       <c r="D560" s="5"/>
+      <c r="G560" s="5"/>
     </row>
     <row r="561">
       <c r="D561" s="5"/>
+      <c r="G561" s="5"/>
     </row>
     <row r="562">
       <c r="D562" s="5"/>
+      <c r="G562" s="5"/>
     </row>
     <row r="563">
       <c r="D563" s="5"/>
+      <c r="G563" s="5"/>
     </row>
     <row r="564">
       <c r="D564" s="5"/>
+      <c r="G564" s="5"/>
     </row>
     <row r="565">
       <c r="D565" s="5"/>
+      <c r="G565" s="5"/>
     </row>
     <row r="566">
       <c r="D566" s="5"/>
+      <c r="G566" s="5"/>
     </row>
     <row r="567">
       <c r="D567" s="5"/>
+      <c r="G567" s="5"/>
     </row>
     <row r="568">
       <c r="D568" s="5"/>
+      <c r="G568" s="5"/>
     </row>
     <row r="569">
       <c r="D569" s="5"/>
+      <c r="G569" s="5"/>
     </row>
     <row r="570">
       <c r="D570" s="5"/>
+      <c r="G570" s="5"/>
     </row>
     <row r="571">
       <c r="D571" s="5"/>
+      <c r="G571" s="5"/>
     </row>
     <row r="572">
       <c r="D572" s="5"/>
+      <c r="G572" s="5"/>
     </row>
     <row r="573">
       <c r="D573" s="5"/>
+      <c r="G573" s="5"/>
     </row>
     <row r="574">
       <c r="D574" s="5"/>
+      <c r="G574" s="5"/>
     </row>
     <row r="575">
       <c r="D575" s="5"/>
+      <c r="G575" s="5"/>
     </row>
     <row r="576">
       <c r="D576" s="5"/>
+      <c r="G576" s="5"/>
     </row>
     <row r="577">
       <c r="D577" s="5"/>
+      <c r="G577" s="5"/>
     </row>
     <row r="578">
       <c r="D578" s="5"/>
+      <c r="G578" s="5"/>
     </row>
     <row r="579">
       <c r="D579" s="5"/>
+      <c r="G579" s="5"/>
     </row>
     <row r="580">
       <c r="D580" s="5"/>
+      <c r="G580" s="5"/>
     </row>
     <row r="581">
       <c r="D581" s="5"/>
+      <c r="G581" s="5"/>
     </row>
     <row r="582">
       <c r="D582" s="5"/>
+      <c r="G582" s="5"/>
     </row>
     <row r="583">
       <c r="D583" s="5"/>
+      <c r="G583" s="5"/>
     </row>
     <row r="584">
       <c r="D584" s="5"/>
+      <c r="G584" s="5"/>
     </row>
     <row r="585">
       <c r="D585" s="5"/>
+      <c r="G585" s="5"/>
     </row>
     <row r="586">
       <c r="D586" s="5"/>
+      <c r="G586" s="5"/>
     </row>
     <row r="587">
       <c r="D587" s="5"/>
+      <c r="G587" s="5"/>
     </row>
     <row r="588">
       <c r="D588" s="5"/>
+      <c r="G588" s="5"/>
     </row>
     <row r="589">
       <c r="D589" s="5"/>
+      <c r="G589" s="5"/>
     </row>
     <row r="590">
       <c r="D590" s="5"/>
+      <c r="G590" s="5"/>
     </row>
     <row r="591">
       <c r="D591" s="5"/>
+      <c r="G591" s="5"/>
     </row>
     <row r="592">
       <c r="D592" s="5"/>
+      <c r="G592" s="5"/>
     </row>
     <row r="593">
       <c r="D593" s="5"/>
+      <c r="G593" s="5"/>
     </row>
     <row r="594">
       <c r="D594" s="5"/>
+      <c r="G594" s="5"/>
     </row>
     <row r="595">
       <c r="D595" s="5"/>
+      <c r="G595" s="5"/>
     </row>
     <row r="596">
       <c r="D596" s="5"/>
+      <c r="G596" s="5"/>
     </row>
     <row r="597">
       <c r="D597" s="5"/>
+      <c r="G597" s="5"/>
     </row>
     <row r="598">
       <c r="D598" s="5"/>
+      <c r="G598" s="5"/>
     </row>
     <row r="599">
       <c r="D599" s="5"/>
+      <c r="G599" s="5"/>
     </row>
     <row r="600">
       <c r="D600" s="5"/>
+      <c r="G600" s="5"/>
     </row>
     <row r="601">
       <c r="D601" s="5"/>
+      <c r="G601" s="5"/>
     </row>
     <row r="602">
       <c r="D602" s="5"/>
+      <c r="G602" s="5"/>
     </row>
     <row r="603">
       <c r="D603" s="5"/>
+      <c r="G603" s="5"/>
     </row>
     <row r="604">
       <c r="D604" s="5"/>
+      <c r="G604" s="5"/>
     </row>
     <row r="605">
       <c r="D605" s="5"/>
+      <c r="G605" s="5"/>
     </row>
     <row r="606">
       <c r="D606" s="5"/>
+      <c r="G606" s="5"/>
     </row>
     <row r="607">
       <c r="D607" s="5"/>
+      <c r="G607" s="5"/>
     </row>
     <row r="608">
       <c r="D608" s="5"/>
+      <c r="G608" s="5"/>
     </row>
     <row r="609">
       <c r="D609" s="5"/>
+      <c r="G609" s="5"/>
     </row>
     <row r="610">
       <c r="D610" s="5"/>
+      <c r="G610" s="5"/>
     </row>
     <row r="611">
       <c r="D611" s="5"/>
+      <c r="G611" s="5"/>
     </row>
     <row r="612">
       <c r="D612" s="5"/>
+      <c r="G612" s="5"/>
     </row>
     <row r="613">
       <c r="D613" s="5"/>
+      <c r="G613" s="5"/>
     </row>
     <row r="614">
       <c r="D614" s="5"/>
+      <c r="G614" s="5"/>
     </row>
     <row r="615">
       <c r="D615" s="5"/>
+      <c r="G615" s="5"/>
     </row>
     <row r="616">
       <c r="D616" s="5"/>
+      <c r="G616" s="5"/>
     </row>
     <row r="617">
       <c r="D617" s="5"/>
+      <c r="G617" s="5"/>
     </row>
     <row r="618">
       <c r="D618" s="5"/>
+      <c r="G618" s="5"/>
     </row>
     <row r="619">
       <c r="D619" s="5"/>
+      <c r="G619" s="5"/>
     </row>
     <row r="620">
       <c r="D620" s="5"/>
+      <c r="G620" s="5"/>
     </row>
     <row r="621">
       <c r="D621" s="5"/>
+      <c r="G621" s="5"/>
     </row>
     <row r="622">
       <c r="D622" s="5"/>
+      <c r="G622" s="5"/>
     </row>
     <row r="623">
       <c r="D623" s="5"/>
+      <c r="G623" s="5"/>
     </row>
     <row r="624">
       <c r="D624" s="5"/>
+      <c r="G624" s="5"/>
     </row>
     <row r="625">
       <c r="D625" s="5"/>
+      <c r="G625" s="5"/>
     </row>
     <row r="626">
       <c r="D626" s="5"/>
+      <c r="G626" s="5"/>
     </row>
     <row r="627">
       <c r="D627" s="5"/>
+      <c r="G627" s="5"/>
     </row>
     <row r="628">
       <c r="D628" s="5"/>
+      <c r="G628" s="5"/>
     </row>
     <row r="629">
       <c r="D629" s="5"/>
+      <c r="G629" s="5"/>
     </row>
     <row r="630">
       <c r="D630" s="5"/>
+      <c r="G630" s="5"/>
     </row>
     <row r="631">
       <c r="D631" s="5"/>
+      <c r="G631" s="5"/>
     </row>
     <row r="632">
       <c r="D632" s="5"/>
+      <c r="G632" s="5"/>
     </row>
     <row r="633">
       <c r="D633" s="5"/>
+      <c r="G633" s="5"/>
     </row>
     <row r="634">
       <c r="D634" s="5"/>
+      <c r="G634" s="5"/>
     </row>
     <row r="635">
       <c r="D635" s="5"/>
+      <c r="G635" s="5"/>
     </row>
     <row r="636">
       <c r="D636" s="5"/>
+      <c r="G636" s="5"/>
     </row>
     <row r="637">
       <c r="D637" s="5"/>
+      <c r="G637" s="5"/>
     </row>
     <row r="638">
       <c r="D638" s="5"/>
+      <c r="G638" s="5"/>
     </row>
     <row r="639">
       <c r="D639" s="5"/>
+      <c r="G639" s="5"/>
     </row>
     <row r="640">
       <c r="D640" s="5"/>
+      <c r="G640" s="5"/>
     </row>
     <row r="641">
       <c r="D641" s="5"/>
+      <c r="G641" s="5"/>
     </row>
     <row r="642">
       <c r="D642" s="5"/>
+      <c r="G642" s="5"/>
     </row>
     <row r="643">
       <c r="D643" s="5"/>
+      <c r="G643" s="5"/>
     </row>
     <row r="644">
       <c r="D644" s="5"/>
+      <c r="G644" s="5"/>
     </row>
     <row r="645">
       <c r="D645" s="5"/>
+      <c r="G645" s="5"/>
     </row>
     <row r="646">
       <c r="D646" s="5"/>
+      <c r="G646" s="5"/>
     </row>
     <row r="647">
       <c r="D647" s="5"/>
+      <c r="G647" s="5"/>
     </row>
     <row r="648">
       <c r="D648" s="5"/>
+      <c r="G648" s="5"/>
     </row>
     <row r="649">
       <c r="D649" s="5"/>
+      <c r="G649" s="5"/>
     </row>
     <row r="650">
       <c r="D650" s="5"/>
+      <c r="G650" s="5"/>
     </row>
     <row r="651">
       <c r="D651" s="5"/>
+      <c r="G651" s="5"/>
     </row>
     <row r="652">
       <c r="D652" s="5"/>
+      <c r="G652" s="5"/>
     </row>
     <row r="653">
       <c r="D653" s="5"/>
+      <c r="G653" s="5"/>
     </row>
     <row r="654">
       <c r="D654" s="5"/>
+      <c r="G654" s="5"/>
     </row>
     <row r="655">
       <c r="D655" s="5"/>
+      <c r="G655" s="5"/>
     </row>
     <row r="656">
       <c r="D656" s="5"/>
+      <c r="G656" s="5"/>
     </row>
     <row r="657">
       <c r="D657" s="5"/>
+      <c r="G657" s="5"/>
     </row>
     <row r="658">
       <c r="D658" s="5"/>
+      <c r="G658" s="5"/>
     </row>
     <row r="659">
       <c r="D659" s="5"/>
+      <c r="G659" s="5"/>
     </row>
     <row r="660">
       <c r="D660" s="5"/>
+      <c r="G660" s="5"/>
     </row>
     <row r="661">
       <c r="D661" s="5"/>
+      <c r="G661" s="5"/>
     </row>
     <row r="662">
       <c r="D662" s="5"/>
+      <c r="G662" s="5"/>
     </row>
     <row r="663">
       <c r="D663" s="5"/>
+      <c r="G663" s="5"/>
     </row>
     <row r="664">
       <c r="D664" s="5"/>
+      <c r="G664" s="5"/>
     </row>
     <row r="665">
       <c r="D665" s="5"/>
+      <c r="G665" s="5"/>
     </row>
     <row r="666">
       <c r="D666" s="5"/>
+      <c r="G666" s="5"/>
     </row>
     <row r="667">
       <c r="D667" s="5"/>
+      <c r="G667" s="5"/>
     </row>
     <row r="668">
       <c r="D668" s="5"/>
+      <c r="G668" s="5"/>
     </row>
     <row r="669">
       <c r="D669" s="5"/>
+      <c r="G669" s="5"/>
     </row>
     <row r="670">
       <c r="D670" s="5"/>
+      <c r="G670" s="5"/>
     </row>
     <row r="671">
       <c r="D671" s="5"/>
+      <c r="G671" s="5"/>
     </row>
     <row r="672">
       <c r="D672" s="5"/>
+      <c r="G672" s="5"/>
     </row>
     <row r="673">
       <c r="D673" s="5"/>
+      <c r="G673" s="5"/>
     </row>
     <row r="674">
       <c r="D674" s="5"/>
+      <c r="G674" s="5"/>
     </row>
     <row r="675">
       <c r="D675" s="5"/>
+      <c r="G675" s="5"/>
     </row>
     <row r="676">
       <c r="D676" s="5"/>
+      <c r="G676" s="5"/>
     </row>
     <row r="677">
       <c r="D677" s="5"/>
+      <c r="G677" s="5"/>
     </row>
     <row r="678">
       <c r="D678" s="5"/>
+      <c r="G678" s="5"/>
     </row>
     <row r="679">
       <c r="D679" s="5"/>
+      <c r="G679" s="5"/>
     </row>
     <row r="680">
       <c r="D680" s="5"/>
+      <c r="G680" s="5"/>
     </row>
     <row r="681">
       <c r="D681" s="5"/>
+      <c r="G681" s="5"/>
     </row>
     <row r="682">
       <c r="D682" s="5"/>
+      <c r="G682" s="5"/>
     </row>
     <row r="683">
       <c r="D683" s="5"/>
+      <c r="G683" s="5"/>
     </row>
     <row r="684">
       <c r="D684" s="5"/>
+      <c r="G684" s="5"/>
     </row>
     <row r="685">
       <c r="D685" s="5"/>
+      <c r="G685" s="5"/>
     </row>
     <row r="686">
       <c r="D686" s="5"/>
+      <c r="G686" s="5"/>
     </row>
     <row r="687">
       <c r="D687" s="5"/>
+      <c r="G687" s="5"/>
     </row>
     <row r="688">
       <c r="D688" s="5"/>
+      <c r="G688" s="5"/>
     </row>
     <row r="689">
       <c r="D689" s="5"/>
+      <c r="G689" s="5"/>
     </row>
     <row r="690">
       <c r="D690" s="5"/>
+      <c r="G690" s="5"/>
     </row>
     <row r="691">
       <c r="D691" s="5"/>
+      <c r="G691" s="5"/>
     </row>
     <row r="692">
       <c r="D692" s="5"/>
+      <c r="G692" s="5"/>
     </row>
     <row r="693">
       <c r="D693" s="5"/>
+      <c r="G693" s="5"/>
     </row>
     <row r="694">
       <c r="D694" s="5"/>
+      <c r="G694" s="5"/>
     </row>
     <row r="695">
       <c r="D695" s="5"/>
+      <c r="G695" s="5"/>
     </row>
     <row r="696">
       <c r="D696" s="5"/>
+      <c r="G696" s="5"/>
     </row>
     <row r="697">
       <c r="D697" s="5"/>
+      <c r="G697" s="5"/>
     </row>
     <row r="698">
       <c r="D698" s="5"/>
+      <c r="G698" s="5"/>
     </row>
     <row r="699">
       <c r="D699" s="5"/>
+      <c r="G699" s="5"/>
     </row>
     <row r="700">
       <c r="D700" s="5"/>
+      <c r="G700" s="5"/>
     </row>
     <row r="701">
       <c r="D701" s="5"/>
+      <c r="G701" s="5"/>
     </row>
     <row r="702">
       <c r="D702" s="5"/>
+      <c r="G702" s="5"/>
     </row>
     <row r="703">
       <c r="D703" s="5"/>
+      <c r="G703" s="5"/>
     </row>
     <row r="704">
       <c r="D704" s="5"/>
+      <c r="G704" s="5"/>
     </row>
     <row r="705">
       <c r="D705" s="5"/>
+      <c r="G705" s="5"/>
     </row>
     <row r="706">
       <c r="D706" s="5"/>
+      <c r="G706" s="5"/>
     </row>
     <row r="707">
       <c r="D707" s="5"/>
+      <c r="G707" s="5"/>
     </row>
     <row r="708">
       <c r="D708" s="5"/>
+      <c r="G708" s="5"/>
     </row>
     <row r="709">
       <c r="D709" s="5"/>
+      <c r="G709" s="5"/>
     </row>
     <row r="710">
       <c r="D710" s="5"/>
+      <c r="G710" s="5"/>
     </row>
     <row r="711">
       <c r="D711" s="5"/>
+      <c r="G711" s="5"/>
     </row>
     <row r="712">
       <c r="D712" s="5"/>
+      <c r="G712" s="5"/>
     </row>
     <row r="713">
       <c r="D713" s="5"/>
+      <c r="G713" s="5"/>
     </row>
     <row r="714">
       <c r="D714" s="5"/>
+      <c r="G714" s="5"/>
     </row>
     <row r="715">
       <c r="D715" s="5"/>
+      <c r="G715" s="5"/>
     </row>
     <row r="716">
       <c r="D716" s="5"/>
+      <c r="G716" s="5"/>
     </row>
     <row r="717">
       <c r="D717" s="5"/>
+      <c r="G717" s="5"/>
     </row>
     <row r="718">
       <c r="D718" s="5"/>
+      <c r="G718" s="5"/>
     </row>
     <row r="719">
       <c r="D719" s="5"/>
+      <c r="G719" s="5"/>
     </row>
     <row r="720">
       <c r="D720" s="5"/>
+      <c r="G720" s="5"/>
     </row>
     <row r="721">
       <c r="D721" s="5"/>
+      <c r="G721" s="5"/>
     </row>
     <row r="722">
       <c r="D722" s="5"/>
+      <c r="G722" s="5"/>
     </row>
     <row r="723">
       <c r="D723" s="5"/>
+      <c r="G723" s="5"/>
     </row>
     <row r="724">
       <c r="D724" s="5"/>
+      <c r="G724" s="5"/>
     </row>
     <row r="725">
       <c r="D725" s="5"/>
+      <c r="G725" s="5"/>
     </row>
     <row r="726">
       <c r="D726" s="5"/>
+      <c r="G726" s="5"/>
     </row>
     <row r="727">
       <c r="D727" s="5"/>
+      <c r="G727" s="5"/>
     </row>
     <row r="728">
       <c r="D728" s="5"/>
+      <c r="G728" s="5"/>
     </row>
     <row r="729">
       <c r="D729" s="5"/>
+      <c r="G729" s="5"/>
     </row>
     <row r="730">
       <c r="D730" s="5"/>
+      <c r="G730" s="5"/>
     </row>
     <row r="731">
       <c r="D731" s="5"/>
+      <c r="G731" s="5"/>
     </row>
     <row r="732">
       <c r="D732" s="5"/>
+      <c r="G732" s="5"/>
     </row>
     <row r="733">
       <c r="D733" s="5"/>
+      <c r="G733" s="5"/>
     </row>
     <row r="734">
       <c r="D734" s="5"/>
+      <c r="G734" s="5"/>
     </row>
     <row r="735">
       <c r="D735" s="5"/>
+      <c r="G735" s="5"/>
     </row>
     <row r="736">
       <c r="D736" s="5"/>
+      <c r="G736" s="5"/>
     </row>
     <row r="737">
       <c r="D737" s="5"/>
+      <c r="G737" s="5"/>
     </row>
     <row r="738">
       <c r="D738" s="5"/>
+      <c r="G738" s="5"/>
     </row>
     <row r="739">
       <c r="D739" s="5"/>
+      <c r="G739" s="5"/>
     </row>
     <row r="740">
       <c r="D740" s="5"/>
+      <c r="G740" s="5"/>
     </row>
     <row r="741">
       <c r="D741" s="5"/>
+      <c r="G741" s="5"/>
     </row>
     <row r="742">
       <c r="D742" s="5"/>
+      <c r="G742" s="5"/>
     </row>
     <row r="743">
       <c r="D743" s="5"/>
+      <c r="G743" s="5"/>
     </row>
     <row r="744">
       <c r="D744" s="5"/>
+      <c r="G744" s="5"/>
     </row>
     <row r="745">
       <c r="D745" s="5"/>
+      <c r="G745" s="5"/>
     </row>
     <row r="746">
       <c r="D746" s="5"/>
+      <c r="G746" s="5"/>
     </row>
     <row r="747">
       <c r="D747" s="5"/>
+      <c r="G747" s="5"/>
     </row>
     <row r="748">
       <c r="D748" s="5"/>
+      <c r="G748" s="5"/>
     </row>
     <row r="749">
       <c r="D749" s="5"/>
+      <c r="G749" s="5"/>
     </row>
     <row r="750">
       <c r="D750" s="5"/>
+      <c r="G750" s="5"/>
     </row>
     <row r="751">
       <c r="D751" s="5"/>
+      <c r="G751" s="5"/>
     </row>
     <row r="752">
       <c r="D752" s="5"/>
+      <c r="G752" s="5"/>
     </row>
     <row r="753">
       <c r="D753" s="5"/>
+      <c r="G753" s="5"/>
     </row>
     <row r="754">
       <c r="D754" s="5"/>
+      <c r="G754" s="5"/>
     </row>
     <row r="755">
       <c r="D755" s="5"/>
+      <c r="G755" s="5"/>
     </row>
     <row r="756">
       <c r="D756" s="5"/>
+      <c r="G756" s="5"/>
     </row>
     <row r="757">
       <c r="D757" s="5"/>
+      <c r="G757" s="5"/>
     </row>
     <row r="758">
       <c r="D758" s="5"/>
+      <c r="G758" s="5"/>
     </row>
     <row r="759">
       <c r="D759" s="5"/>
+      <c r="G759" s="5"/>
     </row>
     <row r="760">
       <c r="D760" s="5"/>
+      <c r="G760" s="5"/>
     </row>
     <row r="761">
       <c r="D761" s="5"/>
+      <c r="G761" s="5"/>
     </row>
     <row r="762">
       <c r="D762" s="5"/>
+      <c r="G762" s="5"/>
     </row>
     <row r="763">
       <c r="D763" s="5"/>
+      <c r="G763" s="5"/>
     </row>
     <row r="764">
       <c r="D764" s="5"/>
+      <c r="G764" s="5"/>
     </row>
     <row r="765">
       <c r="D765" s="5"/>
+      <c r="G765" s="5"/>
     </row>
     <row r="766">
       <c r="D766" s="5"/>
+      <c r="G766" s="5"/>
     </row>
     <row r="767">
       <c r="D767" s="5"/>
+      <c r="G767" s="5"/>
     </row>
     <row r="768">
       <c r="D768" s="5"/>
+      <c r="G768" s="5"/>
     </row>
     <row r="769">
       <c r="D769" s="5"/>
+      <c r="G769" s="5"/>
     </row>
     <row r="770">
       <c r="D770" s="5"/>
+      <c r="G770" s="5"/>
     </row>
     <row r="771">
       <c r="D771" s="5"/>
+      <c r="G771" s="5"/>
     </row>
     <row r="772">
       <c r="D772" s="5"/>
+      <c r="G772" s="5"/>
     </row>
     <row r="773">
       <c r="D773" s="5"/>
+      <c r="G773" s="5"/>
     </row>
     <row r="774">
       <c r="D774" s="5"/>
+      <c r="G774" s="5"/>
     </row>
     <row r="775">
       <c r="D775" s="5"/>
+      <c r="G775" s="5"/>
     </row>
     <row r="776">
       <c r="D776" s="5"/>
+      <c r="G776" s="5"/>
     </row>
     <row r="777">
       <c r="D777" s="5"/>
+      <c r="G777" s="5"/>
     </row>
     <row r="778">
       <c r="D778" s="5"/>
+      <c r="G778" s="5"/>
     </row>
     <row r="779">
       <c r="D779" s="5"/>
+      <c r="G779" s="5"/>
     </row>
     <row r="780">
       <c r="D780" s="5"/>
+      <c r="G780" s="5"/>
     </row>
     <row r="781">
       <c r="D781" s="5"/>
+      <c r="G781" s="5"/>
     </row>
     <row r="782">
       <c r="D782" s="5"/>
+      <c r="G782" s="5"/>
     </row>
     <row r="783">
       <c r="D783" s="5"/>
+      <c r="G783" s="5"/>
     </row>
     <row r="784">
       <c r="D784" s="5"/>
+      <c r="G784" s="5"/>
     </row>
     <row r="785">
       <c r="D785" s="5"/>
+      <c r="G785" s="5"/>
     </row>
     <row r="786">
       <c r="D786" s="5"/>
+      <c r="G786" s="5"/>
     </row>
     <row r="787">
       <c r="D787" s="5"/>
+      <c r="G787" s="5"/>
     </row>
     <row r="788">
       <c r="D788" s="5"/>
+      <c r="G788" s="5"/>
     </row>
     <row r="789">
       <c r="D789" s="5"/>
+      <c r="G789" s="5"/>
     </row>
     <row r="790">
       <c r="D790" s="5"/>
+      <c r="G790" s="5"/>
     </row>
     <row r="791">
       <c r="D791" s="5"/>
+      <c r="G791" s="5"/>
     </row>
     <row r="792">
       <c r="D792" s="5"/>
+      <c r="G792" s="5"/>
     </row>
     <row r="793">
       <c r="D793" s="5"/>
+      <c r="G793" s="5"/>
     </row>
     <row r="794">
       <c r="D794" s="5"/>
+      <c r="G794" s="5"/>
     </row>
     <row r="795">
       <c r="D795" s="5"/>
+      <c r="G795" s="5"/>
     </row>
     <row r="796">
       <c r="D796" s="5"/>
+      <c r="G796" s="5"/>
     </row>
     <row r="797">
       <c r="D797" s="5"/>
+      <c r="G797" s="5"/>
     </row>
     <row r="798">
       <c r="D798" s="5"/>
+      <c r="G798" s="5"/>
     </row>
     <row r="799">
       <c r="D799" s="5"/>
+      <c r="G799" s="5"/>
     </row>
     <row r="800">
       <c r="D800" s="5"/>
+      <c r="G800" s="5"/>
     </row>
     <row r="801">
       <c r="D801" s="5"/>
+      <c r="G801" s="5"/>
     </row>
     <row r="802">
       <c r="D802" s="5"/>
+      <c r="G802" s="5"/>
     </row>
     <row r="803">
       <c r="D803" s="5"/>
+      <c r="G803" s="5"/>
     </row>
     <row r="804">
       <c r="D804" s="5"/>
+      <c r="G804" s="5"/>
     </row>
     <row r="805">
       <c r="D805" s="5"/>
+      <c r="G805" s="5"/>
     </row>
     <row r="806">
       <c r="D806" s="5"/>
+      <c r="G806" s="5"/>
     </row>
     <row r="807">
       <c r="D807" s="5"/>
+      <c r="G807" s="5"/>
     </row>
     <row r="808">
       <c r="D808" s="5"/>
+      <c r="G808" s="5"/>
     </row>
     <row r="809">
       <c r="D809" s="5"/>
+      <c r="G809" s="5"/>
     </row>
     <row r="810">
       <c r="D810" s="5"/>
+      <c r="G810" s="5"/>
     </row>
     <row r="811">
       <c r="D811" s="5"/>
+      <c r="G811" s="5"/>
     </row>
     <row r="812">
       <c r="D812" s="5"/>
+      <c r="G812" s="5"/>
     </row>
     <row r="813">
       <c r="D813" s="5"/>
+      <c r="G813" s="5"/>
     </row>
     <row r="814">
       <c r="D814" s="5"/>
+      <c r="G814" s="5"/>
     </row>
     <row r="815">
       <c r="D815" s="5"/>
+      <c r="G815" s="5"/>
     </row>
     <row r="816">
       <c r="D816" s="5"/>
+      <c r="G816" s="5"/>
     </row>
     <row r="817">
       <c r="D817" s="5"/>
+      <c r="G817" s="5"/>
     </row>
     <row r="818">
       <c r="D818" s="5"/>
+      <c r="G818" s="5"/>
     </row>
     <row r="819">
       <c r="D819" s="5"/>
+      <c r="G819" s="5"/>
     </row>
     <row r="820">
       <c r="D820" s="5"/>
+      <c r="G820" s="5"/>
     </row>
     <row r="821">
       <c r="D821" s="5"/>
+      <c r="G821" s="5"/>
     </row>
     <row r="822">
       <c r="D822" s="5"/>
+      <c r="G822" s="5"/>
     </row>
     <row r="823">
       <c r="D823" s="5"/>
+      <c r="G823" s="5"/>
     </row>
     <row r="824">
       <c r="D824" s="5"/>
+      <c r="G824" s="5"/>
     </row>
     <row r="825">
       <c r="D825" s="5"/>
+      <c r="G825" s="5"/>
     </row>
     <row r="826">
       <c r="D826" s="5"/>
+      <c r="G826" s="5"/>
     </row>
     <row r="827">
       <c r="D827" s="5"/>
+      <c r="G827" s="5"/>
     </row>
     <row r="828">
       <c r="D828" s="5"/>
+      <c r="G828" s="5"/>
     </row>
     <row r="829">
       <c r="D829" s="5"/>
+      <c r="G829" s="5"/>
     </row>
     <row r="830">
       <c r="D830" s="5"/>
+      <c r="G830" s="5"/>
     </row>
     <row r="831">
       <c r="D831" s="5"/>
+      <c r="G831" s="5"/>
     </row>
     <row r="832">
       <c r="D832" s="5"/>
+      <c r="G832" s="5"/>
     </row>
     <row r="833">
       <c r="D833" s="5"/>
+      <c r="G833" s="5"/>
     </row>
     <row r="834">
       <c r="D834" s="5"/>
+      <c r="G834" s="5"/>
     </row>
     <row r="835">
       <c r="D835" s="5"/>
+      <c r="G835" s="5"/>
     </row>
     <row r="836">
       <c r="D836" s="5"/>
+      <c r="G836" s="5"/>
     </row>
     <row r="837">
       <c r="D837" s="5"/>
+      <c r="G837" s="5"/>
     </row>
     <row r="838">
       <c r="D838" s="5"/>
+      <c r="G838" s="5"/>
     </row>
     <row r="839">
       <c r="D839" s="5"/>
+      <c r="G839" s="5"/>
     </row>
     <row r="840">
       <c r="D840" s="5"/>
+      <c r="G840" s="5"/>
     </row>
     <row r="841">
       <c r="D841" s="5"/>
+      <c r="G841" s="5"/>
     </row>
     <row r="842">
       <c r="D842" s="5"/>
+      <c r="G842" s="5"/>
     </row>
     <row r="843">
       <c r="D843" s="5"/>
+      <c r="G843" s="5"/>
     </row>
     <row r="844">
       <c r="D844" s="5"/>
+      <c r="G844" s="5"/>
     </row>
     <row r="845">
       <c r="D845" s="5"/>
+      <c r="G845" s="5"/>
     </row>
     <row r="846">
       <c r="D846" s="5"/>
+      <c r="G846" s="5"/>
     </row>
     <row r="847">
       <c r="D847" s="5"/>
+      <c r="G847" s="5"/>
     </row>
     <row r="848">
       <c r="D848" s="5"/>
+      <c r="G848" s="5"/>
     </row>
     <row r="849">
       <c r="D849" s="5"/>
+      <c r="G849" s="5"/>
     </row>
     <row r="850">
       <c r="D850" s="5"/>
+      <c r="G850" s="5"/>
     </row>
     <row r="851">
       <c r="D851" s="5"/>
+      <c r="G851" s="5"/>
     </row>
     <row r="852">
       <c r="D852" s="5"/>
+      <c r="G852" s="5"/>
     </row>
     <row r="853">
       <c r="D853" s="5"/>
+      <c r="G853" s="5"/>
     </row>
     <row r="854">
       <c r="D854" s="5"/>
+      <c r="G854" s="5"/>
     </row>
     <row r="855">
       <c r="D855" s="5"/>
+      <c r="G855" s="5"/>
     </row>
     <row r="856">
       <c r="D856" s="5"/>
+      <c r="G856" s="5"/>
     </row>
     <row r="857">
       <c r="D857" s="5"/>
+      <c r="G857" s="5"/>
     </row>
     <row r="858">
       <c r="D858" s="5"/>
+      <c r="G858" s="5"/>
     </row>
     <row r="859">
       <c r="D859" s="5"/>
+      <c r="G859" s="5"/>
     </row>
     <row r="860">
       <c r="D860" s="5"/>
+      <c r="G860" s="5"/>
     </row>
     <row r="861">
       <c r="D861" s="5"/>
+      <c r="G861" s="5"/>
     </row>
     <row r="862">
       <c r="D862" s="5"/>
+      <c r="G862" s="5"/>
     </row>
     <row r="863">
       <c r="D863" s="5"/>
+      <c r="G863" s="5"/>
     </row>
     <row r="864">
       <c r="D864" s="5"/>
+      <c r="G864" s="5"/>
     </row>
     <row r="865">
       <c r="D865" s="5"/>
+      <c r="G865" s="5"/>
     </row>
     <row r="866">
       <c r="D866" s="5"/>
+      <c r="G866" s="5"/>
     </row>
     <row r="867">
       <c r="D867" s="5"/>
+      <c r="G867" s="5"/>
     </row>
     <row r="868">
       <c r="D868" s="5"/>
+      <c r="G868" s="5"/>
     </row>
     <row r="869">
       <c r="D869" s="5"/>
+      <c r="G869" s="5"/>
     </row>
     <row r="870">
       <c r="D870" s="5"/>
+      <c r="G870" s="5"/>
     </row>
     <row r="871">
       <c r="D871" s="5"/>
+      <c r="G871" s="5"/>
     </row>
     <row r="872">
       <c r="D872" s="5"/>
+      <c r="G872" s="5"/>
     </row>
     <row r="873">
       <c r="D873" s="5"/>
+      <c r="G873" s="5"/>
     </row>
     <row r="874">
       <c r="D874" s="5"/>
+      <c r="G874" s="5"/>
     </row>
     <row r="875">
       <c r="D875" s="5"/>
+      <c r="G875" s="5"/>
     </row>
     <row r="876">
       <c r="D876" s="5"/>
+      <c r="G876" s="5"/>
     </row>
     <row r="877">
       <c r="D877" s="5"/>
+      <c r="G877" s="5"/>
     </row>
     <row r="878">
       <c r="D878" s="5"/>
+      <c r="G878" s="5"/>
     </row>
     <row r="879">
       <c r="D879" s="5"/>
+      <c r="G879" s="5"/>
     </row>
     <row r="880">
       <c r="D880" s="5"/>
+      <c r="G880" s="5"/>
     </row>
     <row r="881">
       <c r="D881" s="5"/>
+      <c r="G881" s="5"/>
     </row>
     <row r="882">
       <c r="D882" s="5"/>
+      <c r="G882" s="5"/>
     </row>
     <row r="883">
       <c r="D883" s="5"/>
+      <c r="G883" s="5"/>
     </row>
     <row r="884">
       <c r="D884" s="5"/>
+      <c r="G884" s="5"/>
     </row>
     <row r="885">
       <c r="D885" s="5"/>
+      <c r="G885" s="5"/>
     </row>
     <row r="886">
       <c r="D886" s="5"/>
+      <c r="G886" s="5"/>
     </row>
     <row r="887">
       <c r="D887" s="5"/>
+      <c r="G887" s="5"/>
     </row>
     <row r="888">
       <c r="D888" s="5"/>
+      <c r="G888" s="5"/>
     </row>
     <row r="889">
       <c r="D889" s="5"/>
+      <c r="G889" s="5"/>
     </row>
     <row r="890">
       <c r="D890" s="5"/>
+      <c r="G890" s="5"/>
     </row>
     <row r="891">
       <c r="D891" s="5"/>
+      <c r="G891" s="5"/>
     </row>
     <row r="892">
       <c r="D892" s="5"/>
+      <c r="G892" s="5"/>
     </row>
     <row r="893">
       <c r="D893" s="5"/>
+      <c r="G893" s="5"/>
     </row>
     <row r="894">
       <c r="D894" s="5"/>
+      <c r="G894" s="5"/>
     </row>
     <row r="895">
       <c r="D895" s="5"/>
+      <c r="G895" s="5"/>
     </row>
     <row r="896">
       <c r="D896" s="5"/>
+      <c r="G896" s="5"/>
     </row>
     <row r="897">
       <c r="D897" s="5"/>
+      <c r="G897" s="5"/>
     </row>
     <row r="898">
       <c r="D898" s="5"/>
+      <c r="G898" s="5"/>
     </row>
     <row r="899">
       <c r="D899" s="5"/>
+      <c r="G899" s="5"/>
     </row>
     <row r="900">
       <c r="D900" s="5"/>
+      <c r="G900" s="5"/>
     </row>
     <row r="901">
       <c r="D901" s="5"/>
+      <c r="G901" s="5"/>
     </row>
     <row r="902">
       <c r="D902" s="5"/>
+      <c r="G902" s="5"/>
     </row>
     <row r="903">
       <c r="D903" s="5"/>
+      <c r="G903" s="5"/>
     </row>
     <row r="904">
       <c r="D904" s="5"/>
+      <c r="G904" s="5"/>
     </row>
     <row r="905">
       <c r="D905" s="5"/>
+      <c r="G905" s="5"/>
     </row>
     <row r="906">
       <c r="D906" s="5"/>
+      <c r="G906" s="5"/>
     </row>
     <row r="907">
       <c r="D907" s="5"/>
+      <c r="G907" s="5"/>
     </row>
     <row r="908">
       <c r="D908" s="5"/>
+      <c r="G908" s="5"/>
     </row>
     <row r="909">
       <c r="D909" s="5"/>
+      <c r="G909" s="5"/>
     </row>
     <row r="910">
       <c r="D910" s="5"/>
+      <c r="G910" s="5"/>
     </row>
     <row r="911">
       <c r="D911" s="5"/>
+      <c r="G911" s="5"/>
     </row>
     <row r="912">
       <c r="D912" s="5"/>
+      <c r="G912" s="5"/>
     </row>
     <row r="913">
       <c r="D913" s="5"/>
+      <c r="G913" s="5"/>
     </row>
     <row r="914">
       <c r="D914" s="5"/>
+      <c r="G914" s="5"/>
     </row>
     <row r="915">
       <c r="D915" s="5"/>
+      <c r="G915" s="5"/>
     </row>
     <row r="916">
       <c r="D916" s="5"/>
+      <c r="G916" s="5"/>
     </row>
     <row r="917">
       <c r="D917" s="5"/>
+      <c r="G917" s="5"/>
     </row>
     <row r="918">
       <c r="D918" s="5"/>
+      <c r="G918" s="5"/>
     </row>
     <row r="919">
       <c r="D919" s="5"/>
+      <c r="G919" s="5"/>
     </row>
     <row r="920">
       <c r="D920" s="5"/>
+      <c r="G920" s="5"/>
     </row>
     <row r="921">
       <c r="D921" s="5"/>
+      <c r="G921" s="5"/>
     </row>
     <row r="922">
       <c r="D922" s="5"/>
+      <c r="G922" s="5"/>
     </row>
     <row r="923">
       <c r="D923" s="5"/>
+      <c r="G923" s="5"/>
     </row>
     <row r="924">
       <c r="D924" s="5"/>
+      <c r="G924" s="5"/>
     </row>
     <row r="925">
       <c r="D925" s="5"/>
+      <c r="G925" s="5"/>
     </row>
     <row r="926">
       <c r="D926" s="5"/>
+      <c r="G926" s="5"/>
     </row>
     <row r="927">
       <c r="D927" s="5"/>
+      <c r="G927" s="5"/>
     </row>
     <row r="928">
       <c r="D928" s="5"/>
+      <c r="G928" s="5"/>
     </row>
     <row r="929">
       <c r="D929" s="5"/>
+      <c r="G929" s="5"/>
     </row>
     <row r="930">
       <c r="D930" s="5"/>
+      <c r="G930" s="5"/>
     </row>
     <row r="931">
       <c r="D931" s="5"/>
+      <c r="G931" s="5"/>
     </row>
     <row r="932">
       <c r="D932" s="5"/>
+      <c r="G932" s="5"/>
     </row>
     <row r="933">
       <c r="D933" s="5"/>
+      <c r="G933" s="5"/>
     </row>
     <row r="934">
       <c r="D934" s="5"/>
+      <c r="G934" s="5"/>
     </row>
     <row r="935">
       <c r="D935" s="5"/>
+      <c r="G935" s="5"/>
     </row>
     <row r="936">
       <c r="D936" s="5"/>
+      <c r="G936" s="5"/>
     </row>
     <row r="937">
       <c r="D937" s="5"/>
+      <c r="G937" s="5"/>
     </row>
     <row r="938">
       <c r="D938" s="5"/>
+      <c r="G938" s="5"/>
     </row>
     <row r="939">
       <c r="D939" s="5"/>
+      <c r="G939" s="5"/>
     </row>
     <row r="940">
       <c r="D940" s="5"/>
+      <c r="G940" s="5"/>
     </row>
     <row r="941">
       <c r="D941" s="5"/>
+      <c r="G941" s="5"/>
     </row>
     <row r="942">
       <c r="D942" s="5"/>
+      <c r="G942" s="5"/>
     </row>
     <row r="943">
       <c r="D943" s="5"/>
+      <c r="G943" s="5"/>
     </row>
     <row r="944">
       <c r="D944" s="5"/>
+      <c r="G944" s="5"/>
     </row>
     <row r="945">
       <c r="D945" s="5"/>
+      <c r="G945" s="5"/>
     </row>
     <row r="946">
       <c r="D946" s="5"/>
+      <c r="G946" s="5"/>
     </row>
     <row r="947">
       <c r="D947" s="5"/>
+      <c r="G947" s="5"/>
     </row>
     <row r="948">
       <c r="D948" s="5"/>
+      <c r="G948" s="5"/>
     </row>
     <row r="949">
       <c r="D949" s="5"/>
+      <c r="G949" s="5"/>
     </row>
     <row r="950">
       <c r="D950" s="5"/>
+      <c r="G950" s="5"/>
     </row>
     <row r="951">
       <c r="D951" s="5"/>
+      <c r="G951" s="5"/>
     </row>
     <row r="952">
       <c r="D952" s="5"/>
+      <c r="G952" s="5"/>
     </row>
     <row r="953">
       <c r="D953" s="5"/>
+      <c r="G953" s="5"/>
     </row>
     <row r="954">
       <c r="D954" s="5"/>
+      <c r="G954" s="5"/>
     </row>
     <row r="955">
       <c r="D955" s="5"/>
+      <c r="G955" s="5"/>
     </row>
     <row r="956">
       <c r="D956" s="5"/>
+      <c r="G956" s="5"/>
     </row>
     <row r="957">
       <c r="D957" s="5"/>
+      <c r="G957" s="5"/>
     </row>
     <row r="958">
       <c r="D958" s="5"/>
+      <c r="G958" s="5"/>
     </row>
     <row r="959">
       <c r="D959" s="5"/>
@@ -10623,8 +11525,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="25.13"/>
-    <col customWidth="1" min="7" max="8" width="28.75"/>
+    <col customWidth="1" min="5" max="5" width="30.5"/>
+    <col customWidth="1" min="6" max="6" width="25.13"/>
+    <col customWidth="1" min="7" max="7" width="30.5"/>
+    <col customWidth="1" min="8" max="8" width="28.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10670,13 +11574,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -10699,13 +11603,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -10728,13 +11632,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -10756,14 +11660,14 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>83</v>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -10786,13 +11690,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -10814,14 +11718,14 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>81</v>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>89</v>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -10844,13 +11748,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -10873,13 +11777,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -10902,13 +11806,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -10931,13 +11835,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -10959,14 +11863,14 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>95</v>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -10989,13 +11893,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -11018,13 +11922,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -11047,13 +11951,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -11076,13 +11980,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -11105,13 +12009,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>124</v>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -11134,13 +12038,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>19</v>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>12</v>
@@ -11163,13 +12067,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
@@ -11192,13 +12096,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>20</v>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -11221,13 +12125,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>12</v>
@@ -11250,13 +12154,13 @@
         <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>26</v>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
@@ -11279,13 +12183,13 @@
         <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>29</v>
+      <c r="G23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
@@ -11308,13 +12212,13 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>32</v>
+      <c r="G24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
@@ -11337,13 +12241,13 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>35</v>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
@@ -11366,13 +12270,13 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>38</v>
+      <c r="G26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>10</v>
@@ -11394,14 +12298,14 @@
       <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>10</v>
@@ -11424,13 +12328,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>44</v>
+      <c r="G28" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
@@ -11453,13 +12357,13 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>47</v>
+      <c r="G29" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>10</v>
@@ -11481,14 +12385,14 @@
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
+      <c r="E30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>39</v>
+      <c r="G30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
@@ -11511,13 +12415,13 @@
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>42</v>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>10</v>
@@ -11540,13 +12444,13 @@
         <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>45</v>
+      <c r="G32" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>10</v>
@@ -11569,13 +12473,13 @@
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>48</v>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>10</v>
@@ -11598,13 +12502,13 @@
         <v>12</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>51</v>
+      <c r="G34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
@@ -11627,13 +12531,13 @@
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>54</v>
+      <c r="G35" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>10</v>
@@ -11656,13 +12560,13 @@
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>57</v>
+      <c r="G36" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>10</v>
@@ -11685,13 +12589,13 @@
         <v>12</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>60</v>
+      <c r="G37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>10</v>
@@ -11714,13 +12618,13 @@
         <v>12</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>63</v>
+      <c r="G38" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>10</v>
@@ -11743,13 +12647,13 @@
         <v>12</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>66</v>
+      <c r="G39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>10</v>
@@ -11772,13 +12676,13 @@
         <v>12</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>69</v>
+      <c r="G40" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>10</v>
@@ -11801,13 +12705,13 @@
         <v>12</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>72</v>
+      <c r="G41" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>10</v>
@@ -11818,256 +12722,210 @@
     </row>
     <row r="42">
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43">
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44">
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45">
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46">
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47">
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48">
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49">
       <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50">
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51">
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52">
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53">
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54">
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55">
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56">
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57">
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58">
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59">
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60">
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61">
       <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62">
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63">
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64">
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65">
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66">
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67">
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68">
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
     <row r="69">
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70">
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71">
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72">
-      <c r="E72" s="4"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73">
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74">
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75">
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76">
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77">
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78">
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79">
       <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80">
       <c r="C80" s="4"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81">
+      <c r="E81" s="4"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="4"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82">
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83">
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84">
       <c r="F84" s="2"/>
-      <c r="G84" s="3"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85">
-      <c r="E85" s="4"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86">
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
     <row r="87">
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88">
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89">
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90">
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91">
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -12084,8 +12942,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="30.5"/>
-    <col customWidth="1" min="7" max="8" width="33.75"/>
+    <col customWidth="1" min="5" max="7" width="30.5"/>
+    <col customWidth="1" min="8" max="8" width="33.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12131,15 +12989,15 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="1">
@@ -12160,15 +13018,15 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1">
@@ -12188,16 +13046,16 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1">
@@ -12217,16 +13075,16 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1">
@@ -12247,15 +13105,15 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1">
@@ -12275,16 +13133,16 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1">
@@ -12305,15 +13163,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1">
@@ -12334,15 +13192,15 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="1">
@@ -12363,15 +13221,15 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="1">
@@ -12392,15 +13250,15 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1">
@@ -12421,15 +13279,15 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1">
@@ -12450,15 +13308,15 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1">
@@ -12479,15 +13337,15 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="1">
@@ -12508,15 +13366,15 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1">
@@ -12527,25 +13385,25 @@
       <c r="A16" s="1">
         <v>135.0</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>18.0</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="1">
@@ -12556,7 +13414,7 @@
       <c r="A17" s="1">
         <v>136.0</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>18.0</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -12565,16 +13423,16 @@
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="E17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="1">
@@ -12585,7 +13443,7 @@
       <c r="A18" s="1">
         <v>137.0</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>19.0</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -12594,16 +13452,16 @@
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="E18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="1">
@@ -12614,7 +13472,7 @@
       <c r="A19" s="1">
         <v>138.0</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>19.0</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -12623,16 +13481,16 @@
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="1">
@@ -12643,7 +13501,7 @@
       <c r="A20" s="1">
         <v>139.0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>19.0</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -12652,16 +13510,16 @@
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="E20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1">
@@ -12672,7 +13530,7 @@
       <c r="A21" s="1">
         <v>140.0</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>19.0</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -12681,16 +13539,16 @@
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="1">
@@ -12701,23 +13559,23 @@
       <c r="A22" s="1">
         <v>141.0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>19.0</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>79</v>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>92</v>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>10</v>
@@ -12730,7 +13588,7 @@
       <c r="A23" s="1">
         <v>142.0</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>20.0</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -12739,14 +13597,14 @@
       <c r="D23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>79</v>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>95</v>
+      <c r="G23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>10</v>
@@ -12759,7 +13617,7 @@
       <c r="A24" s="1">
         <v>143.0</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>20.0</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -12768,14 +13626,14 @@
       <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>84</v>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>98</v>
+      <c r="G24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>10</v>
@@ -12788,7 +13646,7 @@
       <c r="A25" s="1">
         <v>144.0</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>20.0</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -12797,14 +13655,14 @@
       <c r="D25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>87</v>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>101</v>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>10</v>
@@ -12817,7 +13675,7 @@
       <c r="A26" s="1">
         <v>145.0</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>20.0</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -12826,14 +13684,14 @@
       <c r="D26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>90</v>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>104</v>
+      <c r="G26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>10</v>
@@ -12846,7 +13704,7 @@
       <c r="A27" s="1">
         <v>146.0</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>20.0</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -12855,14 +13713,14 @@
       <c r="D27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>93</v>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>27</v>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>10</v>
@@ -12875,7 +13733,7 @@
       <c r="A28" s="1">
         <v>147.0</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>21.0</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -12884,14 +13742,14 @@
       <c r="D28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>42</v>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
+      <c r="G28" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>10</v>
@@ -12904,7 +13762,7 @@
       <c r="A29" s="1">
         <v>148.0</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>21.0</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -12913,14 +13771,14 @@
       <c r="D29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>45</v>
+      <c r="E29" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>78</v>
+      <c r="G29" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>10</v>
@@ -12933,7 +13791,7 @@
       <c r="A30" s="1">
         <v>149.0</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>21.0</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -12942,14 +13800,14 @@
       <c r="D30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>48</v>
+      <c r="E30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>81</v>
+      <c r="G30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>10</v>
@@ -12962,7 +13820,7 @@
       <c r="A31" s="1">
         <v>150.0</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>21.0</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -12971,14 +13829,14 @@
       <c r="D31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>51</v>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>83</v>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>10</v>
@@ -12991,7 +13849,7 @@
       <c r="A32" s="1">
         <v>151.0</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>21.0</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -13000,14 +13858,14 @@
       <c r="D32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>54</v>
+      <c r="E32" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>86</v>
+      <c r="G32" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>10</v>
@@ -13020,7 +13878,7 @@
       <c r="A33" s="1">
         <v>152.0</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>22.0</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -13029,14 +13887,14 @@
       <c r="D33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>57</v>
+      <c r="E33" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>89</v>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>10</v>
@@ -13049,7 +13907,7 @@
       <c r="A34" s="1">
         <v>153.0</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>22.0</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -13058,14 +13916,14 @@
       <c r="D34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>60</v>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>92</v>
+      <c r="G34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>10</v>
@@ -13078,7 +13936,7 @@
       <c r="A35" s="1">
         <v>154.0</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>22.0</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -13087,14 +13945,14 @@
       <c r="D35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>63</v>
+      <c r="E35" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>95</v>
+      <c r="G35" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>10</v>
@@ -13107,7 +13965,7 @@
       <c r="A36" s="1">
         <v>155.0</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>22.0</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -13116,14 +13974,14 @@
       <c r="D36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>66</v>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>98</v>
+      <c r="G36" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>10</v>
@@ -13136,7 +13994,7 @@
       <c r="A37" s="1">
         <v>156.0</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>22.0</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -13145,14 +14003,14 @@
       <c r="D37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>69</v>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>23</v>
+      <c r="G37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>10</v>
@@ -13165,7 +14023,7 @@
       <c r="A38" s="1">
         <v>157.0</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>23.0</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -13174,14 +14032,14 @@
       <c r="D38" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>72</v>
+      <c r="E38" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
+      <c r="G38" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>10</v>
@@ -13194,7 +14052,7 @@
       <c r="A39" s="1">
         <v>158.0</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>23.0</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -13203,14 +14061,14 @@
       <c r="D39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>75</v>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>14</v>
+      <c r="G39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>10</v>
@@ -13223,7 +14081,7 @@
       <c r="A40" s="1">
         <v>159.0</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>23.0</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -13232,14 +14090,14 @@
       <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>78</v>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>17</v>
+      <c r="G40" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>10</v>
@@ -13252,7 +14110,7 @@
       <c r="A41" s="1">
         <v>160.0</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>23.0</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -13261,14 +14119,14 @@
       <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>81</v>
+      <c r="E41" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>20</v>
+      <c r="G41" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>10</v>
@@ -13278,268 +14136,220 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="8"/>
+      <c r="F42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
     </row>
     <row r="43">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
+      <c r="F43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
     </row>
     <row r="44">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="8"/>
+      <c r="F44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="8"/>
+      <c r="F45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
     </row>
     <row r="46">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
+      <c r="F46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
     </row>
     <row r="47">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="8"/>
+      <c r="F47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
     </row>
     <row r="48">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="8"/>
+      <c r="F48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="8"/>
+      <c r="F49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="8"/>
+      <c r="F50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
     </row>
     <row r="51">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
+      <c r="F51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
+      <c r="F52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
     </row>
     <row r="53">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="8"/>
+      <c r="F53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="8"/>
+      <c r="F54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="8"/>
+      <c r="F55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="8"/>
+      <c r="F56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="8"/>
+      <c r="F57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="8"/>
+      <c r="F58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="8"/>
+      <c r="F59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="7"/>
     </row>
     <row r="60">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="8"/>
+      <c r="F60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="7"/>
     </row>
     <row r="61">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="8"/>
+      <c r="F61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="7"/>
     </row>
     <row r="62">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="8"/>
+      <c r="F62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="8"/>
+      <c r="F63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="7"/>
     </row>
     <row r="64">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8"/>
+      <c r="F64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="7"/>
     </row>
     <row r="65">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="8"/>
+      <c r="F65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="7"/>
     </row>
     <row r="66">
       <c r="D66" s="5"/>
@@ -13588,6 +14398,8 @@
     </row>
     <row r="81">
       <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82">
       <c r="D82" s="5"/>
@@ -13627,6 +14439,8 @@
     </row>
     <row r="94">
       <c r="D94" s="5"/>
+      <c r="E94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95">
       <c r="D95" s="5"/>
@@ -16342,6 +17156,9 @@
     </row>
     <row r="999">
       <c r="D999" s="5"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16358,8 +17175,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="6" width="27.13"/>
-    <col customWidth="1" min="7" max="8" width="35.63"/>
+    <col customWidth="1" min="5" max="5" width="30.5"/>
+    <col customWidth="1" min="6" max="6" width="27.13"/>
+    <col customWidth="1" min="7" max="7" width="30.5"/>
+    <col customWidth="1" min="8" max="8" width="35.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16405,13 +17224,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -16434,13 +17253,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -16463,13 +17282,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -16491,14 +17310,14 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>118</v>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>57</v>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
@@ -16521,13 +17340,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -16550,13 +17369,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>86</v>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -16578,14 +17397,14 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
@@ -16608,13 +17427,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>10</v>
@@ -16636,14 +17455,14 @@
       <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>95</v>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
@@ -16666,13 +17485,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>10</v>
@@ -16695,13 +17514,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
@@ -16724,13 +17543,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>10</v>
@@ -16753,13 +17572,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
@@ -16782,13 +17601,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>10</v>
@@ -16811,13 +17630,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>10</v>
@@ -16830,7 +17649,7 @@
       <c r="A17" s="1">
         <v>176.0</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>23.0</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -16839,14 +17658,14 @@
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>83</v>
+      <c r="E17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>23</v>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
@@ -16859,7 +17678,7 @@
       <c r="A18" s="1">
         <v>177.0</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>24.0</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -16868,14 +17687,14 @@
       <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>86</v>
+      <c r="E18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
+      <c r="G18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
@@ -16888,7 +17707,7 @@
       <c r="A19" s="1">
         <v>178.0</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>24.0</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -16897,14 +17716,14 @@
       <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>89</v>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>29</v>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
@@ -16917,7 +17736,7 @@
       <c r="A20" s="1">
         <v>179.0</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>24.0</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -16926,14 +17745,14 @@
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>92</v>
+      <c r="E20" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>32</v>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
@@ -16946,7 +17765,7 @@
       <c r="A21" s="1">
         <v>180.0</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>24.0</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -16955,14 +17774,14 @@
       <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>95</v>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
+      <c r="G21" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
@@ -16975,7 +17794,7 @@
       <c r="A22" s="1">
         <v>181.0</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>24.0</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -16984,14 +17803,14 @@
       <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>98</v>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>38</v>
+      <c r="G22" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
@@ -17004,7 +17823,7 @@
       <c r="A23" s="1">
         <v>182.0</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>25.0</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -17013,14 +17832,14 @@
       <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>101</v>
+      <c r="E23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>41</v>
+      <c r="G23" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>10</v>
@@ -17033,7 +17852,7 @@
       <c r="A24" s="1">
         <v>183.0</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>25.0</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -17042,14 +17861,14 @@
       <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>104</v>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>44</v>
+      <c r="G24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
@@ -17062,7 +17881,7 @@
       <c r="A25" s="1">
         <v>184.0</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>25.0</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -17071,14 +17890,14 @@
       <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>27</v>
+      <c r="E25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>47</v>
+      <c r="G25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>10</v>
@@ -17091,7 +17910,7 @@
       <c r="A26" s="1">
         <v>185.0</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>25.0</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -17100,14 +17919,14 @@
       <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>107</v>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>50</v>
+      <c r="G26" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>10</v>
@@ -17120,7 +17939,7 @@
       <c r="A27" s="1">
         <v>186.0</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>25.0</v>
       </c>
       <c r="C27" s="9" t="s">
@@ -17129,14 +17948,14 @@
       <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>26</v>
+      <c r="E27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>113</v>
+      <c r="G27" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>10</v>
@@ -17149,7 +17968,7 @@
       <c r="A28" s="1">
         <v>187.0</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>26.0</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -17158,14 +17977,14 @@
       <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>29</v>
+      <c r="E28" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>116</v>
+      <c r="G28" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>10</v>
@@ -17178,23 +17997,23 @@
       <c r="A29" s="1">
         <v>188.0</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>26.0</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>32</v>
+      <c r="E29" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>42</v>
+      <c r="G29" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>10</v>
@@ -17207,7 +18026,7 @@
       <c r="A30" s="1">
         <v>189.0</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>26.0</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -17216,14 +18035,14 @@
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>35</v>
+      <c r="E30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>67</v>
+      <c r="G30" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>10</v>
@@ -17236,7 +18055,7 @@
       <c r="A31" s="1">
         <v>190.0</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>26.0</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -17245,14 +18064,14 @@
       <c r="D31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>38</v>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>119</v>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>10</v>
@@ -17265,7 +18084,7 @@
       <c r="A32" s="1">
         <v>191.0</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>26.0</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -17274,14 +18093,14 @@
       <c r="D32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>41</v>
+      <c r="E32" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>122</v>
+      <c r="G32" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>10</v>
@@ -17294,23 +18113,23 @@
       <c r="A33" s="1">
         <v>192.0</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>27.0</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>18</v>
+      <c r="E33" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>124</v>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
@@ -17323,7 +18142,7 @@
       <c r="A34" s="1">
         <v>193.0</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>27.0</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -17332,14 +18151,14 @@
       <c r="D34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>21</v>
+      <c r="E34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>79</v>
+      <c r="G34" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>10</v>
@@ -17352,7 +18171,7 @@
       <c r="A35" s="1">
         <v>194.0</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>27.0</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -17361,14 +18180,14 @@
       <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>101</v>
+      <c r="E35" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>84</v>
+      <c r="G35" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>10</v>
@@ -17381,7 +18200,7 @@
       <c r="A36" s="1">
         <v>195.0</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="7">
         <v>27.0</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -17390,14 +18209,14 @@
       <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>104</v>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>87</v>
+      <c r="G36" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
@@ -17410,7 +18229,7 @@
       <c r="A37" s="1">
         <v>196.0</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>27.0</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -17419,14 +18238,14 @@
       <c r="D37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>27</v>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>90</v>
+      <c r="G37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>10</v>
@@ -17439,7 +18258,7 @@
       <c r="A38" s="1">
         <v>197.0</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>28.0</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -17448,14 +18267,14 @@
       <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>69</v>
+      <c r="E38" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>93</v>
+      <c r="G38" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>10</v>
@@ -17468,7 +18287,7 @@
       <c r="A39" s="1">
         <v>198.0</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>28.0</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -17477,14 +18296,14 @@
       <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>41</v>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>95</v>
+      <c r="G39" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>10</v>
@@ -17497,7 +18316,7 @@
       <c r="A40" s="1">
         <v>199.0</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>28.0</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -17506,14 +18325,14 @@
       <c r="D40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>39</v>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>27</v>
+      <c r="G40" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>10</v>
@@ -17533,13 +18352,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>69</v>
+      <c r="G41" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>10</v>
@@ -17547,6 +18366,14 @@
       <c r="I41" s="1">
         <v>5.0</v>
       </c>
+    </row>
+    <row r="81">
+      <c r="E81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
